--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Desktop\SIT Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\SF Apps\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB1B87-7C01-47FE-80CD-2AD38CD5ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6180" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="600" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -354,9 +367,6 @@
     <t>Page 1</t>
   </si>
   <si>
-    <t>To help speed up the application process,</t>
-  </si>
-  <si>
     <t>please fill up the applicant's details to check</t>
   </si>
   <si>
@@ -607,12 +617,442 @@
   </si>
   <si>
     <t xml:space="preserve">FATCA </t>
+  </si>
+  <si>
+    <t>Step 1 of 5</t>
+  </si>
+  <si>
+    <t>Customer Onboarding</t>
+  </si>
+  <si>
+    <t>Personal Details</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Buddhism</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Hinduism</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Sikhism</t>
+  </si>
+  <si>
+    <t>Salutation</t>
+  </si>
+  <si>
+    <t>Captain</t>
+  </si>
+  <si>
+    <t>DYMM</t>
+  </si>
+  <si>
+    <t>Datin</t>
+  </si>
+  <si>
+    <t>Datin Seri</t>
+  </si>
+  <si>
+    <t>Dato</t>
+  </si>
+  <si>
+    <t>Dato Sri</t>
+  </si>
+  <si>
+    <t>Dato'</t>
+  </si>
+  <si>
+    <t>Dato' Seri</t>
+  </si>
+  <si>
+    <t>Dato' Sri</t>
+  </si>
+  <si>
+    <t>Datuk</t>
+  </si>
+  <si>
+    <t>Datuk Seri</t>
+  </si>
+  <si>
+    <t>Datuk Sri</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>KDYTM</t>
+  </si>
+  <si>
+    <t>Madam</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
+    <t>Ms.</t>
+  </si>
+  <si>
+    <t>Prof.</t>
+  </si>
+  <si>
+    <t>Puan Hajjah</t>
+  </si>
+  <si>
+    <t>Puan Sri</t>
+  </si>
+  <si>
+    <t>TAN SRI DATO</t>
+  </si>
+  <si>
+    <t>TAN SRI DATO' DR</t>
+  </si>
+  <si>
+    <t>TUN DR.</t>
+  </si>
+  <si>
+    <t>Tan Sri</t>
+  </si>
+  <si>
+    <t>Toh Puan</t>
+  </si>
+  <si>
+    <t>Tuan Haji</t>
+  </si>
+  <si>
+    <t>Tun</t>
+  </si>
+  <si>
+    <t>Dropdown</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Below Secondary</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Doctorate</t>
+  </si>
+  <si>
+    <t>Masters</t>
+  </si>
+  <si>
+    <t>Professional Qualification</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Vocational</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Marital Status</t>
+  </si>
+  <si>
+    <t>Divorce</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>Non-obtainable</t>
+  </si>
+  <si>
+    <t>Separated</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>Widow</t>
+  </si>
+  <si>
+    <t>Country Code</t>
+  </si>
+  <si>
+    <t>Resident Status</t>
+  </si>
+  <si>
+    <t>Employment Status</t>
+  </si>
+  <si>
+    <t>Business Type</t>
+  </si>
+  <si>
+    <t>Bumi</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Non-Bumi</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>Government Employee</t>
+  </si>
+  <si>
+    <t>Outside Labour Force</t>
+  </si>
+  <si>
+    <t>Private Employee</t>
+  </si>
+  <si>
+    <t>Reporting Entity (RE) Employee</t>
+  </si>
+  <si>
+    <t>Self-employed/ Own Account Worker</t>
+  </si>
+  <si>
+    <t>Unemployed</t>
+  </si>
+  <si>
+    <t>Unpaid Family Worker</t>
+  </si>
+  <si>
+    <t>Government</t>
+  </si>
+  <si>
+    <t>MNC / Public Listed</t>
+  </si>
+  <si>
+    <t>Partnership</t>
+  </si>
+  <si>
+    <t>Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Sole Proprietorship</t>
+  </si>
+  <si>
+    <t>Step 2 of 5</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>MALAYSIA</t>
+  </si>
+  <si>
+    <t>Home Address Line 1</t>
+  </si>
+  <si>
+    <t>Home Address Line 2</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>Is the mailing address same as the home address?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Step 3 of 5</t>
+  </si>
+  <si>
+    <t>Employment Details</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>Legal Associate Professionals</t>
+  </si>
+  <si>
+    <t>GAMBLING/BETTING ACTIVITIES/JUNKET /CASINO/GAMING HOUSE</t>
+  </si>
+  <si>
+    <t>Occupation Sector</t>
+  </si>
+  <si>
+    <t>Name of Employer</t>
+  </si>
+  <si>
+    <t>MAYBANK</t>
+  </si>
+  <si>
+    <t>Duration of Service</t>
+  </si>
+  <si>
+    <t>To start a new application, please fill up the details below</t>
+  </si>
+  <si>
+    <t>New NRIC</t>
+  </si>
+  <si>
+    <t>Existing Customer Detected</t>
+  </si>
+  <si>
+    <t>The applicant is an existing Maybank customer.
+Their information will be pre-filled to help you speed up the application process.</t>
+  </si>
+  <si>
+    <t>Create Application</t>
+  </si>
+  <si>
+    <t>+60</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Employment Type</t>
+  </si>
+  <si>
+    <t>PERMANENT</t>
+  </si>
+  <si>
+    <t>2 years</t>
+  </si>
+  <si>
+    <t>10 months</t>
+  </si>
+  <si>
+    <t>Office Address</t>
+  </si>
+  <si>
+    <t>Office Address Line 1</t>
+  </si>
+  <si>
+    <t>Office Address Line 2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Office Contact Number</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>23 Jalan Air Itam</t>
+  </si>
+  <si>
+    <t>Taman Harmony</t>
+  </si>
+  <si>
+    <t>Ampang</t>
+  </si>
+  <si>
+    <t>4483-6800</t>
+  </si>
+  <si>
+    <t>Step 4 of 5</t>
+  </si>
+  <si>
+    <t>Monthly Gross Income</t>
+  </si>
+  <si>
+    <t>Existing Home Financing</t>
+  </si>
+  <si>
+    <t>Non-bank commitments (Optional)</t>
+  </si>
+  <si>
+    <t>Income and Commitment Details</t>
+  </si>
+  <si>
+    <t>Please enter input in Numbers</t>
+  </si>
+  <si>
+    <t>Step 5 of 5</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Primary Income</t>
+  </si>
+  <si>
+    <t>Primary Source of Wealth</t>
+  </si>
+  <si>
+    <t>Is the applicant purchasing more than one property at this moment?</t>
+  </si>
+  <si>
+    <t>Does the applicant have any other pending applications for this property with other banks?</t>
+  </si>
+  <si>
+    <t>Who will be the owner(s) of the property?</t>
+  </si>
+  <si>
+    <t>Pension</t>
+  </si>
+  <si>
+    <t>Savings/Deposit</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Confirmation</t>
+  </si>
+  <si>
+    <t>Home and Mailing Address</t>
+  </si>
+  <si>
+    <t>Selangor</t>
+  </si>
+  <si>
+    <t>Mailing Address Country</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="000000\-00\-0000"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,15 +1093,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -847,11 +1293,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -943,24 +1404,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -976,6 +1419,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1255,23 +1724,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="75.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="31"/>
+    <col min="5" max="5" width="75.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="31"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>27196</v>
       </c>
@@ -1319,7 +1788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="7" t="s">
@@ -1333,7 +1802,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="7" t="s">
@@ -1347,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="7" t="s">
@@ -1361,7 +1830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
@@ -1375,7 +1844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
@@ -1389,7 +1858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
@@ -1403,7 +1872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
@@ -1417,7 +1886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="7" t="s">
@@ -1431,7 +1900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
@@ -1445,7 +1914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="7" t="s">
@@ -1459,7 +1928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
@@ -1473,7 +1942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
@@ -1487,7 +1956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="7" t="s">
@@ -1501,7 +1970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>27480</v>
       </c>
@@ -1533,7 +2002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
@@ -1547,7 +2016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="11" t="s">
@@ -1561,7 +2030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="7" t="s">
@@ -1575,7 +2044,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="7" t="s">
@@ -1589,7 +2058,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
@@ -1605,7 +2074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>27481</v>
       </c>
@@ -1621,7 +2090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
@@ -1635,7 +2104,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="15"/>
@@ -1643,7 +2112,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
@@ -1659,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <v>28360</v>
       </c>
@@ -1675,7 +2144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
@@ -1689,7 +2158,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
@@ -1703,7 +2172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
@@ -1717,7 +2186,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
@@ -1731,7 +2200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
@@ -1745,7 +2214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="7" t="s">
@@ -1759,7 +2228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="7" t="s">
@@ -1773,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="7" t="s">
@@ -1787,7 +2256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="7" t="s">
@@ -1801,15 +2270,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="36"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="13">
         <v>29388</v>
       </c>
@@ -1818,15 +2287,15 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27">
         <v>29387</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="35" t="s">
+      <c r="D40" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="36"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="13">
         <v>29402</v>
       </c>
@@ -1835,13 +2304,13 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="36"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="13">
         <v>29406</v>
       </c>
@@ -1850,13 +2319,13 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="35" t="s">
+      <c r="D42" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="36"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="13">
         <v>29408</v>
       </c>
@@ -1865,13 +2334,13 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="35" t="s">
+      <c r="D43" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="36"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="13">
         <v>29409</v>
       </c>
@@ -1880,13 +2349,13 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="35" t="s">
+      <c r="D44" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="36"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="13">
         <v>29414</v>
       </c>
@@ -1895,13 +2364,13 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="37" t="s">
+      <c r="D45" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="38"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="13">
         <v>29496</v>
       </c>
@@ -1910,15 +2379,15 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="35" t="s">
+      <c r="D46" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="36"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="13">
         <v>29403</v>
       </c>
@@ -1927,15 +2396,15 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="34"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -1944,13 +2413,13 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="36"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="13">
         <v>29463</v>
       </c>
@@ -1959,13 +2428,13 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="34"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -1974,7 +2443,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -1983,22 +2452,22 @@
       <c r="G50" s="32"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2006,23 +2475,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.6328125" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2038,8 +2507,11 @@
       <c r="E1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2056,7 +2528,7 @@
         <v>1038012</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -2073,12 +2545,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -2087,9 +2559,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -2101,7 +2573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -2109,7 +2581,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -2117,7 +2589,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -2125,7 +2597,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -2136,7 +2608,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -2144,7 +2616,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -2152,7 +2624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -2160,7 +2632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -2171,7 +2643,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -2182,7 +2654,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -2190,7 +2662,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -2201,7 +2673,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -2212,7 +2684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
@@ -2223,7 +2695,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -2234,7 +2706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -2242,7 +2714,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -2250,7 +2722,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -2258,7 +2730,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -2269,7 +2741,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -2277,7 +2749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>58</v>
       </c>
@@ -2285,7 +2757,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -2293,7 +2765,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>58</v>
       </c>
@@ -2301,7 +2773,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -2309,7 +2781,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>58</v>
       </c>
@@ -2317,7 +2789,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -2325,7 +2797,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -2333,7 +2805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -2341,7 +2813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>58</v>
       </c>
@@ -2349,7 +2821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -2357,7 +2829,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>58</v>
       </c>
@@ -2365,7 +2837,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -2373,7 +2845,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -2387,732 +2859,1699 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
       <c r="D38" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" s="43" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>294</v>
+      </c>
+      <c r="E48" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="E55" s="41">
+        <v>851012126985</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
+        <v>132</v>
+      </c>
+      <c r="E57" s="44">
+        <f>E55</f>
+        <v>851012126985</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
+        <v>133</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" t="s">
-        <v>121</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" t="s">
-        <v>122</v>
-      </c>
-      <c r="E52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" t="s">
-        <v>124</v>
-      </c>
-      <c r="E54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="43">
-        <v>910203052341</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C56" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" t="s">
-        <v>132</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>137</v>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
+        <v>196</v>
+      </c>
+      <c r="E65" s="40" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D66" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+      <c r="D67" t="s">
+        <v>234</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
+        <v>245</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D69" t="s">
+        <v>246</v>
+      </c>
+      <c r="E69" s="40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" t="s">
+        <v>253</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>58</v>
+      </c>
+      <c r="D71" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="40">
+        <v>142255683</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" t="s">
+        <v>254</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>256</v>
+      </c>
+      <c r="E74" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>273</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" s="40" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>278</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
+        <v>279</v>
+      </c>
+      <c r="E79" s="40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>58</v>
+      </c>
+      <c r="D80" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="40">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D81" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E85" s="40" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>289</v>
+      </c>
+      <c r="E86" s="40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>290</v>
+      </c>
+      <c r="E87" s="40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" t="s">
+        <v>300</v>
+      </c>
+      <c r="E88" s="40" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" t="s">
+        <v>253</v>
+      </c>
+      <c r="E89" s="42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" t="s">
+        <v>299</v>
+      </c>
+      <c r="E90" s="40">
+        <v>144225681</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" s="40" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>275</v>
+      </c>
+      <c r="E94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" t="s">
+        <v>305</v>
+      </c>
+      <c r="E95" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>306</v>
+      </c>
+      <c r="E96" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D97" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" t="s">
+        <v>280</v>
+      </c>
+      <c r="E98">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C99" t="s">
+        <v>58</v>
+      </c>
+      <c r="D99" t="s">
+        <v>307</v>
+      </c>
+      <c r="E99" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>58</v>
+      </c>
+      <c r="D100" t="s">
+        <v>308</v>
+      </c>
+      <c r="E100" s="29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>314</v>
+      </c>
+      <c r="C102" t="s">
+        <v>58</v>
+      </c>
+      <c r="D102" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C103" t="s">
+        <v>58</v>
+      </c>
+      <c r="D103" t="s">
+        <v>315</v>
+      </c>
+      <c r="E103">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C104" t="s">
+        <v>58</v>
+      </c>
+      <c r="D104" t="s">
+        <v>316</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>58</v>
+      </c>
+      <c r="D105" t="s">
+        <v>317</v>
+      </c>
+      <c r="E105">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>58</v>
+      </c>
+      <c r="D107" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>58</v>
+      </c>
+      <c r="D108" t="s">
+        <v>322</v>
+      </c>
+      <c r="E108" s="40" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>58</v>
+      </c>
+      <c r="D109" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>58</v>
+      </c>
+      <c r="D110" t="s">
+        <v>324</v>
+      </c>
+      <c r="E110" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>58</v>
+      </c>
+      <c r="D111" t="s">
+        <v>325</v>
+      </c>
+      <c r="E111" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>58</v>
+      </c>
+      <c r="D112" t="s">
+        <v>326</v>
+      </c>
+      <c r="E112" s="40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" t="s">
+        <v>58</v>
+      </c>
+      <c r="D113" t="s">
+        <v>299</v>
+      </c>
+      <c r="E113" s="51" t="str">
+        <f>E70&amp;E71</f>
+        <v>+60142255683</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <f>TEXT(E113,"+# ## ### ####")</f>
+        <v>+60 14 225 5683</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>331</v>
+      </c>
+      <c r="E115" t="str">
+        <f>E77&amp;", "&amp;E78&amp;", "&amp;E79&amp;", "&amp;E80&amp;" "&amp;E99&amp;", "&amp;E94</f>
+        <v>23 Jalan Air Itam, Taman Harmony, Ampang, 46000 Selangor, Malaysia</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 Applicant,2 Applicants"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>$D$48:$D$54</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67" xr:uid="{E20C7125-A24C-4CE7-A7E7-0ADB1BD76CF2}">
+      <formula1>"Female,Male"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83" xr:uid="{346845DF-0081-42B9-A55D-2B72995FF149}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
   </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E7D0B48-4E7B-4871-B011-1D29E7ABD1C2}">
+          <x14:formula1>
+            <xm:f>Sheet4!$A$2:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E65</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16F8311E-F563-40D0-95EF-0B567354BAD7}">
+          <x14:formula1>
+            <xm:f>Sheet4!$B$2:$B$30</xm:f>
+          </x14:formula1>
+          <xm:sqref>E66</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20116C7B-2D13-43C0-A2EF-F568FF6A0F10}">
+          <x14:formula1>
+            <xm:f>Sheet4!$D$2:$D$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E68</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E18A1F-60AA-4D66-BC71-AED1DFFD34DE}">
+          <x14:formula1>
+            <xm:f>Sheet4!$E$2:$E$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E69</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8674F2D-AE24-4FA2-B97D-0C8160A6CB92}">
+          <x14:formula1>
+            <xm:f>Sheet4!$G:$G</xm:f>
+          </x14:formula1>
+          <xm:sqref>E72</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71128026-EE90-4774-8B76-CC1143E240BB}">
+          <x14:formula1>
+            <xm:f>Sheet4!$H$2:$H$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>E73</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0C857CB-B269-46C4-8C88-B3755789C06F}">
+          <x14:formula1>
+            <xm:f>Sheet4!$I$2:$I$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>E74</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D72D4B-1DB9-4C16-B91B-E06627584291}">
+  <dimension ref="A1:I30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G4" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+      <c r="H5" t="s">
+        <v>263</v>
+      </c>
+      <c r="I5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H6" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" t="s">
+        <v>244</v>
+      </c>
+      <c r="H9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C6:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C7" s="40" t="s">
+    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C8" s="42" t="s">
+      <c r="D8" s="37">
+        <v>541101075397</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="36" t="s">
         <v>144</v>
       </c>
-      <c r="D8" s="43">
-        <v>541101075397</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C9" s="42" t="s">
+      <c r="D9" s="37">
+        <v>570101016446</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="43">
-        <v>570101016446</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C10" s="42" t="s">
+      <c r="D10" s="37">
+        <v>570101086434</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="37">
+        <v>571109086434</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="43">
-        <v>570101086434</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C11" s="42" t="s">
+      <c r="D12" s="37">
+        <v>591211065427</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="37">
+        <v>600415016773</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D14" s="37">
+        <v>610709025024</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="37">
+        <v>620312045089</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="37">
+        <v>650415016773</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="37">
+        <v>650415016776</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="37">
+        <v>680415016773</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="37">
+        <v>680715045461</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="37">
+        <v>730303015056</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="37">
+        <v>741023107565</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="37">
+        <v>760101145212</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="37">
+        <v>760701056789</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="37">
+        <v>760905051239</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="37">
+        <v>780225452136</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="37">
+        <v>800104025021</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27" s="37">
+        <v>800406145418</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="37">
+        <v>800909025021</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="37">
+        <v>811212056898</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D30" s="37">
+        <v>820526451237</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D31" s="37">
+        <v>821109140104</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D32" s="37">
+        <v>821109140109</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="43">
-        <v>571109086434</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C12" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="43">
-        <v>591211065427</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C13" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="43">
-        <v>600415016773</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C14" s="42" t="s">
+      <c r="D33" s="37">
+        <v>830104025021</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="37">
+        <v>831111115333</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="37">
+        <v>840822016004</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D36" s="37">
+        <v>840822016004</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="37">
+        <v>840909025024</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="37">
+        <v>841010998877</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C39" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="D39" s="37">
+        <v>850402045036</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C40" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D40" s="37">
+        <v>850505126745</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C41" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="D41" s="37">
+        <v>850909025025</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="37">
+        <v>851012126985</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D43" s="37">
+        <v>851212146188</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C44" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D44" s="37">
+        <v>860121012105</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="D45" s="37">
+        <v>860127565253</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C46" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D46" s="37">
+        <v>870120047525</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C47" s="36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D47" s="37">
+        <v>870404015011</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C48" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D48" s="37">
+        <v>870611055489</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="36" t="s">
+        <v>179</v>
+      </c>
+      <c r="D49" s="37">
+        <v>880303015016</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C50" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="D14" s="43">
-        <v>610709025024</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C15" s="42" t="s">
+      <c r="D50" s="37">
+        <v>881109146542</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C51" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" s="37">
+        <v>890415016773</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C52" s="36" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" s="37">
+        <v>890612121233</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C53" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="37">
+        <v>900101101233</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C54" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" s="37">
+        <v>900415016773</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C55" s="36" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" s="37">
+        <v>900909025028</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="36" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="37">
+        <v>910203052341</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C57" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="43">
-        <v>620312045089</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C16" s="42" t="s">
+      <c r="D57" s="37">
+        <v>920304056773</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C58" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="37">
+        <v>930303015016</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C59" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="37">
+        <v>930303015016</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C60" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="D16" s="43">
-        <v>650415016773</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="43">
-        <v>650415016776</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D18" s="43">
-        <v>680415016773</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="43">
-        <v>680715045461</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C20" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20" s="43">
-        <v>730303015056</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C21" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="43">
-        <v>741023107565</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C22" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="43">
-        <v>760101145212</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C23" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="43">
-        <v>760701056789</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C24" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="43">
-        <v>760905051239</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C25" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="43">
-        <v>780225452136</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C26" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="43">
-        <v>800104025021</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C27" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="43">
-        <v>800406145418</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C28" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="43">
-        <v>800909025021</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C29" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="43">
-        <v>811212056898</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C30" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="D30" s="43">
-        <v>820526451237</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C31" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="D31" s="43">
-        <v>821109140104</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C32" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="D32" s="43">
-        <v>821109140109</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C33" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="43">
-        <v>830104025021</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C34" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="D34" s="43">
-        <v>831111115333</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C35" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="D35" s="43">
-        <v>840822016004</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C36" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="D36" s="43">
-        <v>840822016004</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C37" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="D37" s="43">
-        <v>840909025024</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C38" s="42" t="s">
-        <v>169</v>
-      </c>
-      <c r="D38" s="43">
-        <v>841010998877</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C39" s="42" t="s">
+      <c r="D60" s="37">
+        <v>940506075042</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C61" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="37">
+        <v>951204051234</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C62" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="D62" s="37">
+        <v>960203155076</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C63" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="D63" s="37">
+        <v>960213145313</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C64" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="37">
+        <v>980525055482</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D39" s="43">
-        <v>850402045036</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C40" s="42" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="43">
-        <v>850505126745</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C41" s="42" t="s">
-        <v>172</v>
-      </c>
-      <c r="D41" s="43">
-        <v>850909025025</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C42" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="D42" s="43">
-        <v>851012126985</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C43" s="42" t="s">
-        <v>174</v>
-      </c>
-      <c r="D43" s="43">
-        <v>851212146188</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C44" s="42" t="s">
-        <v>175</v>
-      </c>
-      <c r="D44" s="43">
-        <v>860121012105</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C45" s="42" t="s">
-        <v>176</v>
-      </c>
-      <c r="D45" s="43">
-        <v>860127565253</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C46" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="D46" s="43">
-        <v>870120047525</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C47" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D47" s="43">
-        <v>870404015011</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C48" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="43">
-        <v>870611055489</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C49" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="D49" s="43">
-        <v>880303015016</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C50" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="D50" s="43">
-        <v>881109146542</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C51" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="43">
-        <v>890415016773</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C52" s="42" t="s">
-        <v>181</v>
-      </c>
-      <c r="D52" s="43">
-        <v>890612121233</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C53" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="D53" s="43">
-        <v>900101101233</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C54" s="42" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="43">
-        <v>900415016773</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C55" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D55" s="43">
-        <v>900909025028</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C56" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="D56" s="43">
-        <v>910203052341</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C57" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="43">
-        <v>920304056773</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C58" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D58" s="43">
-        <v>930303015016</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C59" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="43">
-        <v>930303015016</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C60" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" s="43">
-        <v>940506075042</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C61" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="D61" s="43">
-        <v>951204051234</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C62" s="42" t="s">
-        <v>188</v>
-      </c>
-      <c r="D62" s="43">
-        <v>960203155076</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C63" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="D63" s="43">
-        <v>960213145313</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C64" s="42" t="s">
+      <c r="D65" s="39" t="s">
         <v>189</v>
-      </c>
-      <c r="D64" s="43">
-        <v>980525055482</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C65" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\SF Apps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\New SF\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB1B87-7C01-47FE-80CD-2AD38CD5ABBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D18FD-2695-4F48-832E-6C207AE3C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="600" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10485" yWindow="1815" windowWidth="16260" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Validation" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="391">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -466,156 +467,6 @@
     <t>960603135174</t>
   </si>
   <si>
-    <t>MAYA ONE</t>
-  </si>
-  <si>
-    <t>MONICA BERNARD</t>
-  </si>
-  <si>
-    <t>ABU BIN BAKAR</t>
-  </si>
-  <si>
-    <t>JENNY CHIA</t>
-  </si>
-  <si>
-    <t>MARION GRASBY</t>
-  </si>
-  <si>
-    <t>JIMMY CHOO</t>
-  </si>
-  <si>
-    <t>RAJA ARUMUGAM</t>
-  </si>
-  <si>
-    <t>SARAH BINTI ZAIYAN</t>
-  </si>
-  <si>
-    <t>CINDY JAY ONE</t>
-  </si>
-  <si>
-    <t>GLICO RYAN</t>
-  </si>
-  <si>
-    <t>SARAH BINTI LAZIM</t>
-  </si>
-  <si>
-    <t>ALI BIN OSMAN</t>
-  </si>
-  <si>
-    <t>JENIFER THOMAS</t>
-  </si>
-  <si>
-    <t>Pep Tester</t>
-  </si>
-  <si>
-    <t>Johnny Lucas</t>
-  </si>
-  <si>
-    <t>Rahim Bin Abu</t>
-  </si>
-  <si>
-    <t>HUSSEIN</t>
-  </si>
-  <si>
-    <t>ZAYN BIN MALIK</t>
-  </si>
-  <si>
-    <t>JAILANI B ISNIN</t>
-  </si>
-  <si>
-    <t>RAJU RAJESEGARAN</t>
-  </si>
-  <si>
-    <t>MAK JEMAH</t>
-  </si>
-  <si>
-    <t>Nur Binti Ibrahim</t>
-  </si>
-  <si>
-    <t>Adam Bin Muhammad</t>
-  </si>
-  <si>
-    <t>MAYAONE</t>
-  </si>
-  <si>
-    <t>Cfs Dno Two</t>
-  </si>
-  <si>
-    <t>WANIE ELMAN</t>
-  </si>
-  <si>
-    <t>AMIRA BINTI MAMAT</t>
-  </si>
-  <si>
-    <t>Nur aish</t>
-  </si>
-  <si>
-    <t>LU HEE YAW</t>
-  </si>
-  <si>
-    <t>MAYA THREE</t>
-  </si>
-  <si>
-    <t>TAN LAU SEN</t>
-  </si>
-  <si>
-    <t>MAYA FOUR</t>
-  </si>
-  <si>
-    <t>Female MRTT Tester thirty</t>
-  </si>
-  <si>
-    <t>ADAM BIN OMAR</t>
-  </si>
-  <si>
-    <t>Idayu M</t>
-  </si>
-  <si>
-    <t>Muhammad Azmeer</t>
-  </si>
-  <si>
-    <t>IZHAR BIN JALI</t>
-  </si>
-  <si>
-    <t>Mark Lee</t>
-  </si>
-  <si>
-    <t>HAN SEO JIE</t>
-  </si>
-  <si>
-    <t>Ng Jin Yee</t>
-  </si>
-  <si>
-    <t>Andrew Ting</t>
-  </si>
-  <si>
-    <t>LAU SHIN HEE</t>
-  </si>
-  <si>
-    <t>AMINAH BINTI AZALI</t>
-  </si>
-  <si>
-    <t>Kayal Nataraj</t>
-  </si>
-  <si>
-    <t>ANDREA LAU</t>
-  </si>
-  <si>
-    <t>Ivy Choo</t>
-  </si>
-  <si>
-    <t>LAKASHIMI ABIGAIL</t>
-  </si>
-  <si>
-    <t>Lim Mei Yi</t>
-  </si>
-  <si>
-    <t>A3627222</t>
-  </si>
-  <si>
-    <t>030303015012</t>
-  </si>
-  <si>
     <t xml:space="preserve">FATCA </t>
   </si>
   <si>
@@ -925,16 +776,9 @@
     <t>To start a new application, please fill up the details below</t>
   </si>
   <si>
-    <t>New NRIC</t>
-  </si>
-  <si>
     <t>Existing Customer Detected</t>
   </si>
   <si>
-    <t>The applicant is an existing Maybank customer.
-Their information will be pre-filled to help you speed up the application process.</t>
-  </si>
-  <si>
     <t>Create Application</t>
   </si>
   <si>
@@ -983,9 +827,6 @@
     <t>Ampang</t>
   </si>
   <si>
-    <t>4483-6800</t>
-  </si>
-  <si>
     <t>Step 4 of 5</t>
   </si>
   <si>
@@ -1022,18 +863,12 @@
     <t>Does the applicant have any other pending applications for this property with other banks?</t>
   </si>
   <si>
-    <t>Who will be the owner(s) of the property?</t>
-  </si>
-  <si>
     <t>Pension</t>
   </si>
   <si>
     <t>Savings/Deposit</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Confirmation</t>
   </si>
   <si>
@@ -1044,16 +879,356 @@
   </si>
   <si>
     <t>Mailing Address Country</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>Sign Electronically</t>
+  </si>
+  <si>
+    <t>Generate Consent Form</t>
+  </si>
+  <si>
+    <t>Upload Application Form</t>
+  </si>
+  <si>
+    <t>Automatically send the consent form to the applicant via email.</t>
+  </si>
+  <si>
+    <t>Save Your Progress</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Save Now</t>
+  </si>
+  <si>
+    <t>I/We have read and agree to be bound by the Product Disclosure Sheet(s) and other relevant documents attached.</t>
+  </si>
+  <si>
+    <t>I/We have read and agreed to/understood the Declaration.</t>
+  </si>
+  <si>
+    <t>I/We confirm that I do not meet the definition of a U.S. person or fall under any of the indicias mentioned in the U.S. Foreign Account Tax Compliance Act ("FATCA") and agree to be bound by the terms of the declaration in the FATCA/ CRS self-certification form in the attached link.</t>
+  </si>
+  <si>
+    <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower.</t>
+  </si>
+  <si>
+    <t>I/We hereby acknowledge that the processing of my/our mortgage loan/financing is based partly on this Declaration, I/We further confirm that this Declaration is true and accurate as regards to the purpose intended.</t>
+  </si>
+  <si>
+    <t>I/We have read, agree and accept the terms of the Maybank Group Privacy Statement (“PS") for marketing of products and services by Maybank Group / other entities referred to in the PS.</t>
+  </si>
+  <si>
+    <t>Yes, I expressly agree to be contacted</t>
+  </si>
+  <si>
+    <t>No, I do not agree to be contacted</t>
+  </si>
+  <si>
+    <t>Sign &amp; Consent</t>
+  </si>
+  <si>
+    <t>I/We hereby agree to accept this product / services and that the use of electronic messages and electronic acceptance for all matters related to this product / services shall be binding in accordance with the Electronic Commerce Act 2006.</t>
+  </si>
+  <si>
+    <t>Search Property</t>
+  </si>
+  <si>
+    <t>Please fill up the following details to check your applicant's eligibility</t>
+  </si>
+  <si>
+    <t>Property Details</t>
+  </si>
+  <si>
+    <t>Is the property a primary market/ under construction?</t>
+  </si>
+  <si>
+    <t>Select "No" if it's a sub-sale/ non-EF property</t>
+  </si>
+  <si>
+    <t>Search for Property</t>
+  </si>
+  <si>
+    <t>Successfully signed document.</t>
+  </si>
+  <si>
+    <t>Property Name</t>
+  </si>
+  <si>
+    <t>Kyra 1</t>
+  </si>
+  <si>
+    <t>K*@yra 1</t>
+  </si>
+  <si>
+    <t>NoKyra 1</t>
+  </si>
+  <si>
+    <t>saKyraas 1</t>
+  </si>
+  <si>
+    <t>K YRA 1</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>YKRA 1</t>
+  </si>
+  <si>
+    <t>Kasdyra</t>
+  </si>
+  <si>
+    <t>Kyr</t>
+  </si>
+  <si>
+    <t>No Property Found</t>
+  </si>
+  <si>
+    <t>Try searching a different keyword.</t>
+  </si>
+  <si>
+    <t>Could the property be a sub-sale or non-EF property instead?</t>
+  </si>
+  <si>
+    <t>No property name</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Unit Number</t>
+  </si>
+  <si>
+    <t>Enter Unit Number</t>
+  </si>
+  <si>
+    <t>Property Price</t>
+  </si>
+  <si>
+    <t>Type A-2</t>
+  </si>
+  <si>
+    <t>1-1201</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNOPQRSTUVWYZ</t>
+  </si>
+  <si>
+    <t>Financing Details</t>
+  </si>
+  <si>
+    <t>Financing Amount</t>
+  </si>
+  <si>
+    <t>Financing Period</t>
+  </si>
+  <si>
+    <t>The financing amount cannot be more than the property price</t>
+  </si>
+  <si>
+    <t>(Inclusive of BICC Period)</t>
+  </si>
+  <si>
+    <t>The loan amount cannot be more than the property price</t>
+  </si>
+  <si>
+    <t>Loan amount must be at least RM10,000</t>
+  </si>
+  <si>
+    <t>Loan amount must be more than 50% of the property price</t>
+  </si>
+  <si>
+    <t>Financing Plan</t>
+  </si>
+  <si>
+    <t>A recommended financing plan has been auto-selected for you.</t>
+  </si>
+  <si>
+    <t>Financing Type</t>
+  </si>
+  <si>
+    <t>Islamic Financing</t>
+  </si>
+  <si>
+    <t>Conventional Financing</t>
+  </si>
+  <si>
+    <t>My First Home Scheme-i</t>
+  </si>
+  <si>
+    <t>Commodity Murabahah Financing-i</t>
+  </si>
+  <si>
+    <t>My First Home Scheme / Skim Rumah Pertamaku</t>
+  </si>
+  <si>
+    <t>MaxiHome</t>
+  </si>
+  <si>
+    <t>NRIC</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>FATCA = Yes</t>
+  </si>
+  <si>
+    <t>We're unable to process FATCA customers currently. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>Maybank Staff</t>
+  </si>
+  <si>
+    <t>NTB customer</t>
+  </si>
+  <si>
+    <t>We're unable to process NTB customers currently. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>We're unable to process applications from Maybank staff currently. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>Nationality not MY</t>
+  </si>
+  <si>
+    <t>We can only process Malaysian customers. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>age &lt;18 &amp; &gt;61</t>
+  </si>
+  <si>
+    <t>Customers must be between 18 to 65 years old.</t>
+  </si>
+  <si>
+    <t>Customer Not Individual</t>
+  </si>
+  <si>
+    <t>Onboarding status not ACT</t>
+  </si>
+  <si>
+    <t>We can only process individual account type. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>We're unable to process applications that are not fully onboarded currently. Kindly create a new application in WoLOC.</t>
+  </si>
+  <si>
+    <t>Onboarding status not FULL</t>
+  </si>
+  <si>
+    <t>branch approval is not blank</t>
+  </si>
+  <si>
+    <t>Error Msg</t>
+  </si>
+  <si>
+    <t>I/We have read and agreed to/understood the  Declaration</t>
+  </si>
+  <si>
+    <t>I/We agree that my personal and business data may be processed by Maybank or Maybank's selected credit reporting agency in accordance with the Credit Reporting Agencies (CRA) Act 2020 and Central Bank of Malaysia Act 2009.</t>
+  </si>
+  <si>
+    <t>I/We confirm that I do not meet the definition of a U.S. person or fall under any of the indicias mentioned in the U.S. Foreign Account Tax Compliance Act ("FATCA")  and agree to be bound by the terms of the declaration in the  FATCA/ CRS self-certification form in the attached link</t>
+  </si>
+  <si>
+    <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower</t>
+  </si>
+  <si>
+    <t>I/We further undertake to notify Maybank in writing within 30 calendar days of any change of circumstances or information declared which cause the information contained herein to become incorrect.</t>
+  </si>
+  <si>
+    <t>T&amp;C Content</t>
+  </si>
+  <si>
+    <t>T&amp;C Hyperlinks</t>
+  </si>
+  <si>
+    <t>Product Disclosure Sheet(s)</t>
+  </si>
+  <si>
+    <t>https://www.maybank2u.com.my/iwov-resources/pdf/upload/maeapp/pds_conventional_islamic_mortgage.pdf</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>https://www.maybank2u.com.my/iwov-resources/pdf/upload/maeapp/declaration_form.pdf</t>
+  </si>
+  <si>
+    <t>FATCA</t>
+  </si>
+  <si>
+    <t>https://www.maybank2u.com.my/iwov-resources/maybank/document/my/en/personal/FATCA010615.pdf</t>
+  </si>
+  <si>
+    <t>FATCA / CRS self-certification</t>
+  </si>
+  <si>
+    <t>https://www.maybank2u.com.my/WebBank/CRS_FAQ-Declaration.pdf</t>
+  </si>
+  <si>
+    <t>Maybank Group Privacy Notice (“PN”)</t>
+  </si>
+  <si>
+    <t>https://www.maybank2u.com.my/iwov-resources/maybank/document/my/en/personal/PDPA-mbb.pdf</t>
+  </si>
+  <si>
+    <t>I/We hereby acknowledge that the processing of my/our mortgage loan/ financing is based partly on this Declaration, I/We further confirm that this Declaration is true and accurate as regards to the purpose intended.</t>
+  </si>
+  <si>
+    <t>I/We have read, agree and accept the terms of the Maybank Group  Privacy Statement (“PS") for marketing of products and services by Maybank Group /other entities referred to in the PN.</t>
+  </si>
+  <si>
+    <t>We've pre-filled their information to help you speed up the application process. Please confirm with the customer if the details are correct and recent before proceeding.</t>
+  </si>
+  <si>
+    <t>We've pre-filled their information to help you speed up the application process. However, there are some missing information, Please reach out to your customer to update and proceed with the application</t>
+  </si>
+  <si>
+    <t>Is the applicant going to be the sole owner of the property?</t>
+  </si>
+  <si>
+    <t>What's your applicant's preferred method to provide consent to the terms and conditions?</t>
+  </si>
+  <si>
+    <t>Meet the applicant in person and sign the consent form directly on your tablet or phone.</t>
+  </si>
+  <si>
+    <t>Upload applicant's mortgage application form or simplified consent form.</t>
+  </si>
+  <si>
+    <t>You can choose to save your progress as a draft before leaving and pick up from where you left off at a later time.</t>
+  </si>
+  <si>
+    <t>Kindly have your applicant provide their signature in the box below</t>
+  </si>
+  <si>
+    <t>Thank you for your signature!</t>
+  </si>
+  <si>
+    <t>You may now pass the device back to your sales representative to proceed with the application.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="000000\-00\-0000"/>
+    <numFmt numFmtId="165" formatCode="&quot;RM&quot;\ #,##0.00_-;\-&quot;RM&quot;* #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="&quot;RM&quot;\ #,##0.00;[Red]\-&quot;RM&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;RM&quot;\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="####\-####"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1092,8 +1267,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1106,8 +1289,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1207,96 +1396,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -1309,8 +1408,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1408,34 +1508,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1444,12 +1539,73 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1727,7 +1883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2275,10 +2431,10 @@
         <v>44</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="13">
         <v>29388</v>
       </c>
@@ -2292,10 +2448,10 @@
         <v>29387</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="13">
         <v>29402</v>
       </c>
@@ -2307,10 +2463,10 @@
     <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="13">
         <v>29406</v>
       </c>
@@ -2322,10 +2478,10 @@
     <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="13">
         <v>29408</v>
       </c>
@@ -2337,10 +2493,10 @@
     <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="13">
         <v>29409</v>
       </c>
@@ -2352,10 +2508,10 @@
     <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="13">
         <v>29414</v>
       </c>
@@ -2367,10 +2523,10 @@
     <row r="45" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="13">
         <v>29496</v>
       </c>
@@ -2384,10 +2540,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="13">
         <v>29403</v>
       </c>
@@ -2401,10 +2557,10 @@
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -2416,10 +2572,10 @@
     <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="13">
         <v>29463</v>
       </c>
@@ -2431,10 +2587,10 @@
     <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -2457,17 +2613,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2475,11 +2631,191 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59AEDF-F159-462C-873D-997372408743}">
+  <dimension ref="C10:E43"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>369</v>
+      </c>
+      <c r="E39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>373</v>
+      </c>
+      <c r="E41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>375</v>
+      </c>
+      <c r="E42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>377</v>
+      </c>
+      <c r="E43" t="s">
+        <v>378</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C37 C39:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37:C40">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2508,7 +2844,7 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2561,7 +2897,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -2864,14 +3200,14 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>293</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="37" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2879,7 +3215,7 @@
       <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="43" t="s">
+      <c r="D40" s="37" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2947,116 +3283,116 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="44" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="44" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="44" t="s">
         <v>138</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="44" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>58</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="44" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="44" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="44" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>124</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="40" t="s">
-        <v>294</v>
-      </c>
-      <c r="E55" s="41">
+      <c r="D55" t="s">
+        <v>118</v>
+      </c>
+      <c r="E55" s="35">
         <v>851012126985</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
         <v>131</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E56" s="36" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>58</v>
       </c>
       <c r="D57" t="s">
         <v>132</v>
       </c>
-      <c r="E57" s="44">
+      <c r="E57" s="38">
         <f>E55</f>
         <v>851012126985</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -3067,7 +3403,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -3075,7 +3411,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -3083,7 +3419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>58</v>
       </c>
@@ -3091,40 +3427,43 @@
         <v>136</v>
       </c>
       <c r="E61" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>192</v>
+        <v>142</v>
       </c>
       <c r="C62" t="s">
         <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>193</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+      <c r="E62" t="s">
+        <v>381</v>
+      </c>
+      <c r="F62" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>144</v>
       </c>
       <c r="E63" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3135,10 +3474,10 @@
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65" s="40" t="s">
-        <v>200</v>
+        <v>146</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3146,10 +3485,10 @@
         <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="40" t="s">
-        <v>220</v>
+        <v>153</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3157,10 +3496,10 @@
         <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>234</v>
-      </c>
-      <c r="E67" s="40" t="s">
-        <v>236</v>
+        <v>184</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3168,10 +3507,10 @@
         <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>245</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>241</v>
+        <v>195</v>
+      </c>
+      <c r="E68" s="34" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3179,10 +3518,10 @@
         <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>246</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>251</v>
+        <v>196</v>
+      </c>
+      <c r="E69" s="34" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,10 +3529,10 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>253</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>298</v>
+        <v>203</v>
+      </c>
+      <c r="E70" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3201,9 +3540,9 @@
         <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
-      </c>
-      <c r="E71" s="40">
+        <v>247</v>
+      </c>
+      <c r="E71" s="34">
         <v>142255683</v>
       </c>
     </row>
@@ -3212,10 +3551,10 @@
         <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>254</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>257</v>
+        <v>204</v>
+      </c>
+      <c r="E72" s="34" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3223,10 +3562,10 @@
         <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>263</v>
+        <v>205</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3234,21 +3573,21 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>256</v>
-      </c>
-      <c r="E74" s="40" t="s">
-        <v>269</v>
+        <v>206</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="C75" t="s">
         <v>58</v>
       </c>
       <c r="D75" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3256,10 +3595,10 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
-        <v>275</v>
-      </c>
-      <c r="E76" s="40" t="s">
-        <v>276</v>
+        <v>225</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3267,10 +3606,10 @@
         <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>310</v>
+        <v>227</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3278,10 +3617,10 @@
         <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
-      </c>
-      <c r="E78" s="40" t="s">
-        <v>311</v>
+        <v>228</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,10 +3628,10 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
-      </c>
-      <c r="E79" s="40" t="s">
-        <v>312</v>
+        <v>229</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3300,9 +3639,9 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
-      </c>
-      <c r="E80" s="40">
+        <v>230</v>
+      </c>
+      <c r="E80" s="34">
         <v>46000</v>
       </c>
     </row>
@@ -3311,7 +3650,7 @@
         <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>281</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -3319,7 +3658,7 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
@@ -3330,18 +3669,18 @@
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="C84" t="s">
         <v>58</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3349,10 +3688,10 @@
         <v>58</v>
       </c>
       <c r="D85" t="s">
-        <v>286</v>
-      </c>
-      <c r="E85" s="40" t="s">
-        <v>287</v>
+        <v>236</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3360,10 +3699,10 @@
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>289</v>
-      </c>
-      <c r="E86" s="40" t="s">
-        <v>288</v>
+        <v>239</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3371,10 +3710,10 @@
         <v>58</v>
       </c>
       <c r="D87" t="s">
-        <v>290</v>
-      </c>
-      <c r="E87" s="40" t="s">
-        <v>291</v>
+        <v>240</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,10 +3721,10 @@
         <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>300</v>
-      </c>
-      <c r="E88" s="40" t="s">
-        <v>301</v>
+        <v>248</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3393,10 +3732,10 @@
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>253</v>
-      </c>
-      <c r="E89" s="42" t="s">
-        <v>298</v>
+        <v>203</v>
+      </c>
+      <c r="E89" s="36" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3404,9 +3743,9 @@
         <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>299</v>
-      </c>
-      <c r="E90" s="40">
+        <v>247</v>
+      </c>
+      <c r="E90" s="34">
         <v>144225681</v>
       </c>
     </row>
@@ -3415,18 +3754,18 @@
         <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>292</v>
-      </c>
-      <c r="E91" s="40" t="s">
-        <v>302</v>
+        <v>242</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
-      <c r="E92" s="40" t="s">
-        <v>303</v>
+      <c r="E92" s="34" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -3434,7 +3773,7 @@
         <v>58</v>
       </c>
       <c r="D93" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -3442,10 +3781,10 @@
         <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="E94" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -3453,10 +3792,10 @@
         <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
       <c r="E95" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -3464,10 +3803,10 @@
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
       <c r="E96" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -3475,10 +3814,10 @@
         <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>229</v>
       </c>
       <c r="E97" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -3486,7 +3825,7 @@
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>230</v>
       </c>
       <c r="E98">
         <v>46000</v>
@@ -3497,10 +3836,10 @@
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
       <c r="E99" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -3508,29 +3847,33 @@
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>58</v>
       </c>
-      <c r="E101" t="s">
-        <v>313</v>
+      <c r="D101">
+        <v>44836800</v>
+      </c>
+      <c r="E101" s="45">
+        <f>D101</f>
+        <v>44836800</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>318</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -3538,7 +3881,7 @@
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="E103">
         <v>5000</v>
@@ -3549,7 +3892,7 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3560,7 +3903,7 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -3571,18 +3914,18 @@
         <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="C107" t="s">
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3590,10 +3933,10 @@
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>322</v>
-      </c>
-      <c r="E108" s="40" t="s">
-        <v>327</v>
+        <v>269</v>
+      </c>
+      <c r="E108" s="34" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3601,56 +3944,47 @@
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="40" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+      <c r="E109" s="34" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>324</v>
-      </c>
-      <c r="E110" s="40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>325</v>
-      </c>
-      <c r="E111" s="40" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
-      </c>
-      <c r="E112" s="40" t="s">
-        <v>115</v>
+        <v>272</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>330</v>
+        <v>275</v>
       </c>
       <c r="C113" t="s">
         <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>299</v>
-      </c>
-      <c r="E113" s="51" t="str">
+        <v>247</v>
+      </c>
+      <c r="E113" s="39" t="str">
         <f>E70&amp;E71</f>
         <v>+60142255683</v>
       </c>
@@ -3663,7 +3997,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>331</v>
+        <v>276</v>
       </c>
       <c r="E115" t="str">
         <f>E77&amp;", "&amp;E78&amp;", "&amp;E79&amp;", "&amp;E80&amp;" "&amp;E99&amp;", "&amp;E94</f>
@@ -3672,34 +4006,438 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>275</v>
+        <v>225</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>274</v>
+        <v>224</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>333</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>281</v>
       </c>
     </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>366</v>
+      </c>
+      <c r="E136" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>292</v>
+      </c>
+      <c r="E137" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>294</v>
+      </c>
+      <c r="E139" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="D141" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="D143" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>302</v>
+      </c>
+      <c r="E149" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>310</v>
+      </c>
+      <c r="E150" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D152" s="40"/>
+      <c r="E152" s="40" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>311</v>
+      </c>
+      <c r="E155" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>319</v>
+      </c>
+      <c r="E160" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>320</v>
+      </c>
+      <c r="E161" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>321</v>
+      </c>
+      <c r="E162" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>322</v>
+      </c>
+      <c r="E163">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="41">
+        <f>E164</f>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>327</v>
+      </c>
+      <c r="E167" s="42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>328</v>
+      </c>
+      <c r="E168">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>329</v>
+      </c>
+      <c r="E169">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>330</v>
+      </c>
+      <c r="E170" s="43">
+        <f>E169</f>
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>331</v>
+      </c>
+      <c r="E171">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>333</v>
+      </c>
+      <c r="E172">
+        <f>0.49*E164</f>
+        <v>245000</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>332</v>
+      </c>
+      <c r="E173">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
+        <v>334</v>
+      </c>
+      <c r="E174">
+        <f>(E164-E169)/E164</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
+        <v>337</v>
+      </c>
+      <c r="E177" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
+        <v>338</v>
+      </c>
+      <c r="E179" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
+        <v>390</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="5">
+  <conditionalFormatting sqref="D131:D133 D135:D139">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134:E134">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132:D138">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108:D115">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 Applicant,2 Applicants"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D55" xr:uid="{00000000-0002-0000-0100-000002000000}">
-      <formula1>$D$48:$D$54</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67" xr:uid="{E20C7125-A24C-4CE7-A7E7-0ADB1BD76CF2}">
       <formula1>"Female,Male"</formula1>
@@ -3708,8 +4446,11 @@
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E152" r:id="rId1" xr:uid="{74208B04-A5C8-461E-9B92-7B86D5A8FEFE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
@@ -3761,7 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D72D4B-1DB9-4C16-B91B-E06627584291}">
   <dimension ref="A1:I30"/>
   <sheetViews>
@@ -3773,293 +4514,293 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
         <v>196</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F1" t="s">
-        <v>253</v>
-      </c>
       <c r="G1" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="H1" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D2" t="s">
+        <v>187</v>
+      </c>
+      <c r="E2" t="s">
         <v>197</v>
       </c>
-      <c r="B2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" t="s">
-        <v>247</v>
-      </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>268</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" t="s">
         <v>198</v>
       </c>
-      <c r="B3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" t="s">
-        <v>248</v>
-      </c>
       <c r="G3" t="s">
-        <v>258</v>
+        <v>208</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>211</v>
       </c>
       <c r="I3" t="s">
-        <v>269</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" t="s">
         <v>199</v>
       </c>
-      <c r="B4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E4" t="s">
-        <v>249</v>
-      </c>
       <c r="G4" t="s">
-        <v>259</v>
+        <v>209</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="I4" t="s">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
         <v>200</v>
       </c>
-      <c r="B5" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E5" t="s">
-        <v>250</v>
-      </c>
       <c r="H5" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
         <v>201</v>
       </c>
-      <c r="B6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>241</v>
-      </c>
-      <c r="E6" t="s">
-        <v>251</v>
-      </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="I6" t="s">
-        <v>271</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" t="s">
         <v>202</v>
       </c>
-      <c r="B7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E7" t="s">
-        <v>252</v>
-      </c>
       <c r="H7" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="I7" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="D8" t="s">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="H8" t="s">
-        <v>266</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="H9" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>212</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>213</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>214</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>217</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>218</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>232</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -4067,492 +4808,274 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="C6:D65"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="37">
-        <v>541101075397</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="37">
-        <v>570101016446</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="37">
-        <v>570101086434</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="D11" s="37">
-        <v>571109086434</v>
-      </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="37">
-        <v>591211065427</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="37">
-        <v>600415016773</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="37">
-        <v>610709025024</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D15" s="37">
-        <v>620312045089</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="37">
-        <v>650415016773</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D17" s="37">
-        <v>650415016776</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" s="37">
-        <v>680415016773</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C19" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="37">
-        <v>680715045461</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C20" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="37">
-        <v>730303015056</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D21" s="37">
-        <v>741023107565</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D22" s="37">
-        <v>760101145212</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="37">
-        <v>760701056789</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="37">
-        <v>760905051239</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="37">
-        <v>780225452136</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C26" s="36" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="37">
-        <v>800104025021</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="D27" s="37">
-        <v>800406145418</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="D28" s="37">
-        <v>800909025021</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="37">
-        <v>811212056898</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="37">
-        <v>820526451237</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="D31" s="37">
-        <v>821109140104</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C32" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="D32" s="37">
-        <v>821109140109</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" s="37">
-        <v>830104025021</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="37">
-        <v>831111115333</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="37">
-        <v>840822016004</v>
-      </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C36" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D36" s="37">
-        <v>840822016004</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" s="36" t="s">
-        <v>167</v>
-      </c>
-      <c r="D37" s="37">
-        <v>840909025024</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="D38" s="37">
-        <v>841010998877</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="D39" s="37">
-        <v>850402045036</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D40" s="37">
-        <v>850505126745</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="D41" s="37">
-        <v>850909025025</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="37">
-        <v>851012126985</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C43" s="36" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="37">
-        <v>851212146188</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C44" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="D44" s="37">
-        <v>860121012105</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C45" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="D45" s="37">
-        <v>860127565253</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C46" s="36" t="s">
-        <v>176</v>
-      </c>
-      <c r="D46" s="37">
-        <v>870120047525</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C47" s="36" t="s">
-        <v>177</v>
-      </c>
-      <c r="D47" s="37">
-        <v>870404015011</v>
-      </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C48" s="36" t="s">
-        <v>178</v>
-      </c>
-      <c r="D48" s="37">
-        <v>870611055489</v>
-      </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C49" s="36" t="s">
-        <v>179</v>
-      </c>
-      <c r="D49" s="37">
-        <v>880303015016</v>
-      </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C50" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="37">
-        <v>881109146542</v>
-      </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C51" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="37">
-        <v>890415016773</v>
-      </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C52" s="36" t="s">
-        <v>180</v>
-      </c>
-      <c r="D52" s="37">
-        <v>890612121233</v>
-      </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="37">
-        <v>900101101233</v>
-      </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="D54" s="37">
-        <v>900415016773</v>
-      </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C55" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="D55" s="37">
-        <v>900909025028</v>
-      </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C56" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="D56" s="37">
-        <v>910203052341</v>
-      </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C57" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="37">
-        <v>920304056773</v>
-      </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C58" s="36" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="37">
-        <v>930303015016</v>
-      </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C59" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D59" s="37">
-        <v>930303015016</v>
-      </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C60" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D60" s="37">
-        <v>940506075042</v>
-      </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C61" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D61" s="37">
-        <v>951204051234</v>
-      </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C62" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="37">
-        <v>960203155076</v>
-      </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C63" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="D63" s="37">
-        <v>960213145313</v>
-      </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C64" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="D64" s="37">
-        <v>980525055482</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>189</v>
-      </c>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>353</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" t="s">
+        <v>357</v>
+      </c>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>358</v>
+      </c>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" t="s">
+        <v>358</v>
+      </c>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D53"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D54"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D55"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D56"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D57"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D58"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D59"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D60"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D61"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D62"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D63"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D64"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\New SF\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258D18FD-2695-4F48-832E-6C207AE3C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73642ADC-FFF5-4B01-AE4A-D89261FADBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10485" yWindow="1815" windowWidth="16260" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2940" windowWidth="16260" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Draft" sheetId="5" r:id="rId2"/>
+    <sheet name="Main" sheetId="2" r:id="rId3"/>
+    <sheet name="Dropdown" sheetId="4" r:id="rId4"/>
     <sheet name="Validation" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="400">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -371,9 +371,6 @@
     <t>please fill up the applicant's details to check</t>
   </si>
   <si>
-    <t>if they're an existing customer</t>
-  </si>
-  <si>
     <t>Number of Applicant</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>Duration of Service</t>
   </si>
   <si>
-    <t>To start a new application, please fill up the details below</t>
-  </si>
-  <si>
     <t>Existing Customer Detected</t>
   </si>
   <si>
@@ -1130,69 +1124,18 @@
     <t>Error Msg</t>
   </si>
   <si>
-    <t>I/We have read and agreed to/understood the  Declaration</t>
-  </si>
-  <si>
     <t>I/We agree that my personal and business data may be processed by Maybank or Maybank's selected credit reporting agency in accordance with the Credit Reporting Agencies (CRA) Act 2020 and Central Bank of Malaysia Act 2009.</t>
   </si>
   <si>
-    <t>I/We confirm that I do not meet the definition of a U.S. person or fall under any of the indicias mentioned in the U.S. Foreign Account Tax Compliance Act ("FATCA")  and agree to be bound by the terms of the declaration in the  FATCA/ CRS self-certification form in the attached link</t>
-  </si>
-  <si>
     <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower</t>
   </si>
   <si>
     <t>I/We further undertake to notify Maybank in writing within 30 calendar days of any change of circumstances or information declared which cause the information contained herein to become incorrect.</t>
   </si>
   <si>
-    <t>T&amp;C Content</t>
-  </si>
-  <si>
-    <t>T&amp;C Hyperlinks</t>
-  </si>
-  <si>
-    <t>Product Disclosure Sheet(s)</t>
-  </si>
-  <si>
-    <t>https://www.maybank2u.com.my/iwov-resources/pdf/upload/maeapp/pds_conventional_islamic_mortgage.pdf</t>
-  </si>
-  <si>
-    <t>Declaration</t>
-  </si>
-  <si>
-    <t>https://www.maybank2u.com.my/iwov-resources/pdf/upload/maeapp/declaration_form.pdf</t>
-  </si>
-  <si>
-    <t>FATCA</t>
-  </si>
-  <si>
-    <t>https://www.maybank2u.com.my/iwov-resources/maybank/document/my/en/personal/FATCA010615.pdf</t>
-  </si>
-  <si>
-    <t>FATCA / CRS self-certification</t>
-  </si>
-  <si>
-    <t>https://www.maybank2u.com.my/WebBank/CRS_FAQ-Declaration.pdf</t>
-  </si>
-  <si>
-    <t>Maybank Group Privacy Notice (“PN”)</t>
-  </si>
-  <si>
-    <t>https://www.maybank2u.com.my/iwov-resources/maybank/document/my/en/personal/PDPA-mbb.pdf</t>
-  </si>
-  <si>
-    <t>I/We hereby acknowledge that the processing of my/our mortgage loan/ financing is based partly on this Declaration, I/We further confirm that this Declaration is true and accurate as regards to the purpose intended.</t>
-  </si>
-  <si>
-    <t>I/We have read, agree and accept the terms of the Maybank Group  Privacy Statement (“PS") for marketing of products and services by Maybank Group /other entities referred to in the PN.</t>
-  </si>
-  <si>
     <t>We've pre-filled their information to help you speed up the application process. Please confirm with the customer if the details are correct and recent before proceeding.</t>
   </si>
   <si>
-    <t>We've pre-filled their information to help you speed up the application process. However, there are some missing information, Please reach out to your customer to update and proceed with the application</t>
-  </si>
-  <si>
     <t>Is the applicant going to be the sole owner of the property?</t>
   </si>
   <si>
@@ -1215,6 +1158,90 @@
   </si>
   <si>
     <t>You may now pass the device back to your sales representative to proceed with the application.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft </t>
+  </si>
+  <si>
+    <t>Delete Application</t>
+  </si>
+  <si>
+    <t>This application has been deleted.</t>
+  </si>
+  <si>
+    <t>Before we proceed, please fill up the</t>
+  </si>
+  <si>
+    <t>existing customer</t>
+  </si>
+  <si>
+    <t>The applicant is an existing Maybank customer. Their information will be pre-filled to help you speed up the application process.</t>
+  </si>
+  <si>
+    <t>Draft Application</t>
+  </si>
+  <si>
+    <t>Pending Applicant's Information</t>
+  </si>
+  <si>
+    <t>UCO Stage</t>
+  </si>
+  <si>
+    <t>Please complete your applicant's information to proceed.</t>
+  </si>
+  <si>
+    <t>No information available yet</t>
+  </si>
+  <si>
+    <t>View Application Details</t>
+  </si>
+  <si>
+    <t>Consent Stage</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Pending Applicant's Consent</t>
+  </si>
+  <si>
+    <t>Kindly obtain your applicant's consent to proceed.</t>
+  </si>
+  <si>
+    <t>Submit Consent</t>
+  </si>
+  <si>
+    <t>Property Selection Stage</t>
+  </si>
+  <si>
+    <t>Pending Eligibility Check</t>
+  </si>
+  <si>
+    <t>Kindly complete the eligibility check before proceeding.</t>
+  </si>
+  <si>
+    <t>Continue Submission</t>
+  </si>
+  <si>
+    <t>Submit Application Results Stage</t>
+  </si>
+  <si>
+    <t>Pending Data Entry</t>
+  </si>
+  <si>
+    <t>Kindly submit your applicant's consent form to proceed.</t>
+  </si>
+  <si>
+    <t>Application Details</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Non-bank commitments</t>
+  </si>
+  <si>
+    <t>Your application draft has been saved. You can come back and complete the application later.</t>
   </si>
 </sst>
 </file>
@@ -1276,18 +1303,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1412,7 +1433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1512,25 +1533,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1544,17 +1564,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2431,10 +2441,10 @@
         <v>44</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="48" t="s">
+      <c r="D39" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="49"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="13">
         <v>29388</v>
       </c>
@@ -2448,10 +2458,10 @@
         <v>29387</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="48" t="s">
+      <c r="D40" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="49"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="13">
         <v>29402</v>
       </c>
@@ -2463,10 +2473,10 @@
     <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="49"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="13">
         <v>29406</v>
       </c>
@@ -2478,10 +2488,10 @@
     <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="48" t="s">
+      <c r="D42" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="49"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="13">
         <v>29408</v>
       </c>
@@ -2493,10 +2503,10 @@
     <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="49"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="13">
         <v>29409</v>
       </c>
@@ -2508,10 +2518,10 @@
     <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="49"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="13">
         <v>29414</v>
       </c>
@@ -2523,10 +2533,10 @@
     <row r="45" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="50"/>
       <c r="F45" s="13">
         <v>29496</v>
       </c>
@@ -2540,10 +2550,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="48" t="s">
+      <c r="D46" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="49"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="13">
         <v>29403</v>
       </c>
@@ -2557,10 +2567,10 @@
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="48"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -2572,10 +2582,10 @@
     <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="49"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="13">
         <v>29463</v>
       </c>
@@ -2587,10 +2597,10 @@
     <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="48"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -2613,17 +2623,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2632,179 +2642,188 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59AEDF-F159-462C-873D-997372408743}">
-  <dimension ref="C10:E43"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>381</v>
+      </c>
+      <c r="E6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>386</v>
+      </c>
+      <c r="E7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>387</v>
+      </c>
+      <c r="E8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>390</v>
+      </c>
+      <c r="E9" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>391</v>
+      </c>
+      <c r="E10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>394</v>
+      </c>
+      <c r="E11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39" t="s">
-        <v>369</v>
-      </c>
-      <c r="E39" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>371</v>
-      </c>
-      <c r="E40" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41">
-        <v>3</v>
-      </c>
-      <c r="D41" t="s">
-        <v>373</v>
-      </c>
-      <c r="E41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42">
-        <v>4</v>
-      </c>
-      <c r="D42" t="s">
-        <v>375</v>
-      </c>
-      <c r="E42" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>377</v>
-      </c>
-      <c r="E43" t="s">
-        <v>378</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C37 C39:C1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37:C40">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2814,8 +2833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D173" sqref="D173"/>
+    <sheetView topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2825,6 +2844,7 @@
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
     <col min="4" max="4" width="40.140625" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -2844,7 +2864,7 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2883,10 +2903,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -2897,7 +2917,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -3116,6 +3136,9 @@
       <c r="D28" t="s">
         <v>96</v>
       </c>
+      <c r="E28" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
@@ -3200,14 +3223,14 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="43" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3215,8 +3238,8 @@
       <c r="C40" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="37" t="s">
-        <v>109</v>
+      <c r="D40" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3224,7 +3247,7 @@
         <v>58</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -3232,7 +3255,7 @@
         <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3240,7 +3263,7 @@
         <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -3248,7 +3271,7 @@
         <v>58</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3256,10 +3279,10 @@
         <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,7 +3290,7 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -3275,7 +3298,7 @@
         <v>58</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3283,87 +3306,87 @@
         <v>58</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="44" t="s">
-        <v>126</v>
+        <v>117</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="E49" s="44" t="s">
-        <v>127</v>
+      <c r="D49" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>128</v>
+      <c r="D50" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="E51" s="44" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>129</v>
+      <c r="D52" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="E53" s="44" t="s">
-        <v>125</v>
+      <c r="D53" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>130</v>
+      <c r="D54" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E55" s="35">
         <v>851012126985</v>
@@ -3374,10 +3397,10 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="2:6" x14ac:dyDescent="0.25">
@@ -3385,9 +3408,9 @@
         <v>58</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E57" s="38">
+        <v>131</v>
+      </c>
+      <c r="E57" s="37">
         <f>E55</f>
         <v>851012126985</v>
       </c>
@@ -3397,10 +3420,10 @@
         <v>58</v>
       </c>
       <c r="D58" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="2:6" x14ac:dyDescent="0.25">
@@ -3408,7 +3431,7 @@
         <v>58</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="2:6" x14ac:dyDescent="0.25">
@@ -3416,7 +3439,7 @@
         <v>58</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.25">
@@ -3424,27 +3447,27 @@
         <v>58</v>
       </c>
       <c r="D61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
         <v>142</v>
       </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
-        <v>143</v>
-      </c>
       <c r="E62" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F62" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -3452,10 +3475,10 @@
         <v>58</v>
       </c>
       <c r="D63" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3463,21 +3486,21 @@
         <v>58</v>
       </c>
       <c r="D64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" t="s">
         <v>58</v>
       </c>
       <c r="D65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E65" s="34" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3485,10 +3508,10 @@
         <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3496,10 +3519,10 @@
         <v>58</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3507,10 +3530,10 @@
         <v>58</v>
       </c>
       <c r="D68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E68" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3518,10 +3541,10 @@
         <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3529,10 +3552,10 @@
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3540,7 +3563,7 @@
         <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E71" s="34">
         <v>142255683</v>
@@ -3551,10 +3574,10 @@
         <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E72" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3562,10 +3585,10 @@
         <v>58</v>
       </c>
       <c r="D73" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E73" s="34" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3573,21 +3596,21 @@
         <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E74" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
         <v>223</v>
-      </c>
-      <c r="C75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3595,10 +3618,10 @@
         <v>58</v>
       </c>
       <c r="D76" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" s="34" t="s">
         <v>225</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3606,10 +3629,10 @@
         <v>58</v>
       </c>
       <c r="D77" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E77" s="34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3617,10 +3640,10 @@
         <v>58</v>
       </c>
       <c r="D78" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E78" s="34" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3628,10 +3651,10 @@
         <v>58</v>
       </c>
       <c r="D79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E79" s="34" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3639,7 +3662,7 @@
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E80" s="34">
         <v>46000</v>
@@ -3650,7 +3673,7 @@
         <v>58</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.25">
@@ -3658,29 +3681,29 @@
         <v>58</v>
       </c>
       <c r="D82" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C83" t="s">
         <v>58</v>
       </c>
       <c r="D83" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
         <v>234</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3688,10 +3711,10 @@
         <v>58</v>
       </c>
       <c r="D85" t="s">
+        <v>235</v>
+      </c>
+      <c r="E85" s="34" t="s">
         <v>236</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3699,10 +3722,10 @@
         <v>58</v>
       </c>
       <c r="D86" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" s="34" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3710,10 +3733,10 @@
         <v>58</v>
       </c>
       <c r="D87" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="34" t="s">
         <v>240</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3721,10 +3744,10 @@
         <v>58</v>
       </c>
       <c r="D88" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E88" s="34" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3732,10 +3755,10 @@
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3743,7 +3766,7 @@
         <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E90" s="34">
         <v>144225681</v>
@@ -3754,10 +3777,10 @@
         <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E91" s="34" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3765,7 +3788,7 @@
         <v>58</v>
       </c>
       <c r="E92" s="34" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.25">
@@ -3773,7 +3796,7 @@
         <v>58</v>
       </c>
       <c r="D93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="2:5" x14ac:dyDescent="0.25">
@@ -3781,10 +3804,10 @@
         <v>58</v>
       </c>
       <c r="D94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="2:5" x14ac:dyDescent="0.25">
@@ -3792,10 +3815,10 @@
         <v>58</v>
       </c>
       <c r="D95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="96" spans="2:5" x14ac:dyDescent="0.25">
@@ -3803,10 +3826,10 @@
         <v>58</v>
       </c>
       <c r="D96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E96" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="2:5" x14ac:dyDescent="0.25">
@@ -3814,10 +3837,10 @@
         <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="98" spans="2:5" x14ac:dyDescent="0.25">
@@ -3825,7 +3848,7 @@
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E98">
         <v>46000</v>
@@ -3836,10 +3859,10 @@
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="2:5" x14ac:dyDescent="0.25">
@@ -3847,10 +3870,10 @@
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
@@ -3860,20 +3883,20 @@
       <c r="D101">
         <v>44836800</v>
       </c>
-      <c r="E101" s="45">
+      <c r="E101" s="44">
         <f>D101</f>
         <v>44836800</v>
       </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
@@ -3881,7 +3904,7 @@
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E103">
         <v>5000</v>
@@ -3892,7 +3915,7 @@
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3903,7 +3926,7 @@
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -3914,18 +3937,18 @@
         <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C107" t="s">
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3933,10 +3956,10 @@
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3944,10 +3967,10 @@
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="110" spans="2:5" x14ac:dyDescent="0.25">
@@ -3955,7 +3978,7 @@
         <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
@@ -3963,7 +3986,7 @@
         <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
@@ -3971,20 +3994,20 @@
         <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C113" t="s">
         <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>247</v>
-      </c>
-      <c r="E113" s="39" t="str">
+        <v>245</v>
+      </c>
+      <c r="E113" s="38" t="str">
         <f>E70&amp;E71</f>
         <v>+60142255683</v>
       </c>
@@ -3997,7 +4020,7 @@
     </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E115" t="str">
         <f>E77&amp;", "&amp;E78&amp;", "&amp;E79&amp;", "&amp;E80&amp;" "&amp;E99&amp;", "&amp;E94</f>
@@ -4006,83 +4029,83 @@
     </row>
     <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C120" t="s">
         <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="131" spans="2:5" x14ac:dyDescent="0.25">
@@ -4092,199 +4115,199 @@
     </row>
     <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E136" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E137" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E139" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D141" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D143" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E150" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D152" s="40"/>
-      <c r="E152" s="40" t="s">
-        <v>306</v>
+      <c r="D152" s="39"/>
+      <c r="E152" s="39" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E155" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D157" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E160" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E161" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E162" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E163">
         <v>100</v>
@@ -4296,27 +4319,27 @@
       </c>
     </row>
     <row r="165" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="41">
+      <c r="E165" s="40">
         <f>E164</f>
         <v>500000</v>
       </c>
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>327</v>
-      </c>
-      <c r="E167" s="42">
+        <v>325</v>
+      </c>
+      <c r="E167" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E168">
         <v>40</v>
@@ -4324,7 +4347,7 @@
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E169">
         <v>400000</v>
@@ -4332,16 +4355,16 @@
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>330</v>
-      </c>
-      <c r="E170" s="43">
+        <v>328</v>
+      </c>
+      <c r="E170" s="42">
         <f>E169</f>
         <v>400000</v>
       </c>
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E171">
         <v>600000</v>
@@ -4349,7 +4372,7 @@
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E172">
         <f>0.49*E164</f>
@@ -4358,7 +4381,7 @@
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E173">
         <v>9999</v>
@@ -4366,7 +4389,7 @@
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E174">
         <f>(E164-E169)/E164</f>
@@ -4375,62 +4398,62 @@
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
+        <v>335</v>
+      </c>
+      <c r="E177" t="s">
         <v>337</v>
-      </c>
-      <c r="E177" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D131:D133 D135:D139">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D134:E134">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D132:D138">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D115">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -4456,43 +4479,43 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E7D0B48-4E7B-4871-B011-1D29E7ABD1C2}">
           <x14:formula1>
-            <xm:f>Sheet4!$A$2:$A$7</xm:f>
+            <xm:f>Dropdown!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16F8311E-F563-40D0-95EF-0B567354BAD7}">
           <x14:formula1>
-            <xm:f>Sheet4!$B$2:$B$30</xm:f>
+            <xm:f>Dropdown!$B$2:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>E66</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20116C7B-2D13-43C0-A2EF-F568FF6A0F10}">
           <x14:formula1>
-            <xm:f>Sheet4!$D$2:$D$9</xm:f>
+            <xm:f>Dropdown!$D$2:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>E68</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E18A1F-60AA-4D66-BC71-AED1DFFD34DE}">
           <x14:formula1>
-            <xm:f>Sheet4!$E$2:$E$7</xm:f>
+            <xm:f>Dropdown!$E$2:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E69</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8674F2D-AE24-4FA2-B97D-0C8160A6CB92}">
           <x14:formula1>
-            <xm:f>Sheet4!$G:$G</xm:f>
+            <xm:f>Dropdown!$G:$G</xm:f>
           </x14:formula1>
           <xm:sqref>E72</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71128026-EE90-4774-8B76-CC1143E240BB}">
           <x14:formula1>
-            <xm:f>Sheet4!$H$2:$H$9</xm:f>
+            <xm:f>Dropdown!$H$2:$H$9</xm:f>
           </x14:formula1>
           <xm:sqref>E73</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0C857CB-B269-46C4-8C88-B3755789C06F}">
           <x14:formula1>
-            <xm:f>Sheet4!$I$2:$I$7</xm:f>
+            <xm:f>Dropdown!$I$2:$I$7</xm:f>
           </x14:formula1>
           <xm:sqref>E74</xm:sqref>
         </x14:dataValidation>
@@ -4504,306 +4527,413 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D72D4B-1DB9-4C16-B91B-E06627584291}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>146</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>184</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
+      </c>
+      <c r="J2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="s">
+        <v>208</v>
+      </c>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I4" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>200</v>
+      </c>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+      <c r="I6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" t="s">
         <v>195</v>
       </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="J11" t="s">
         <v>203</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J12" t="s">
         <v>204</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="J13" t="s">
         <v>205</v>
       </c>
-      <c r="I1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G2" t="s">
-        <v>207</v>
-      </c>
-      <c r="H2" t="s">
-        <v>210</v>
-      </c>
-      <c r="I2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" t="s">
-        <v>198</v>
-      </c>
-      <c r="G3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H3" t="s">
-        <v>211</v>
-      </c>
-      <c r="I3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" t="s">
-        <v>209</v>
-      </c>
-      <c r="H4" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" t="s">
-        <v>190</v>
-      </c>
-      <c r="E5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" t="s">
-        <v>201</v>
-      </c>
-      <c r="H6" t="s">
-        <v>214</v>
-      </c>
-      <c r="I6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>160</v>
-      </c>
-      <c r="D8" t="s">
-        <v>193</v>
-      </c>
-      <c r="H8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="J14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="J15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="J16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="J17" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="J18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="J19" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="J20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="J21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="J22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="J23" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="J24" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="J25" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="J26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="J27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>182</v>
+      <c r="J30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J28:J32">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4826,89 +4956,89 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C7" t="s">
         <v>355</v>
-      </c>
-      <c r="C7" t="s">
-        <v>357</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" t="s">
         <v>356</v>
-      </c>
-      <c r="C8" t="s">
-        <v>358</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D10"/>
     </row>

--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\New SF\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73642ADC-FFF5-4B01-AE4A-D89261FADBD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E232013-6AEC-4380-9897-8342BA8831B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2940" windowWidth="16260" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1710" windowWidth="13755" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="405">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -905,15 +905,9 @@
     <t>I/We have read and agreed to/understood the Declaration.</t>
   </si>
   <si>
-    <t>I/We confirm that I do not meet the definition of a U.S. person or fall under any of the indicias mentioned in the U.S. Foreign Account Tax Compliance Act ("FATCA") and agree to be bound by the terms of the declaration in the FATCA/ CRS self-certification form in the attached link.</t>
-  </si>
-  <si>
     <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower.</t>
   </si>
   <si>
-    <t>I/We hereby acknowledge that the processing of my/our mortgage loan/financing is based partly on this Declaration, I/We further confirm that this Declaration is true and accurate as regards to the purpose intended.</t>
-  </si>
-  <si>
     <t>I/We have read, agree and accept the terms of the Maybank Group Privacy Statement (“PS") for marketing of products and services by Maybank Group / other entities referred to in the PS.</t>
   </si>
   <si>
@@ -1242,6 +1236,27 @@
   </si>
   <si>
     <t>Your application draft has been saved. You can come back and complete the application later.</t>
+  </si>
+  <si>
+    <t>I/We confirm that I do not meet the definition of a U.S. person or fall under any of the indicias mentioned in the U.S. Foreign Account Tax Compliance Act ("FATCA")  and agree to be bound by the terms of the declaration in the  FATCA/ CRS self-certification form in the attached link.</t>
+  </si>
+  <si>
+    <t>I/We hereby acknowledge that the processing of my/our mortgage loan/ financing is based partly on this Declaration, I/We further confirm that this Declaration is true and accurate as regards to the purpose intended.</t>
+  </si>
+  <si>
+    <t>You may proceed with data entry and submit it to your manager for approval.</t>
+  </si>
+  <si>
+    <t>The amount suggested is different than the applied amount and period because your applicant is not eligible for their desired terms.</t>
+  </si>
+  <si>
+    <t>The amount suggested is different than the applied amount and period.</t>
+  </si>
+  <si>
+    <t>Based on their details, they're not eligible for this financing.</t>
+  </si>
+  <si>
+    <t>View Reasons</t>
   </si>
 </sst>
 </file>
@@ -1541,16 +1556,16 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1564,7 +1579,57 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1893,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E85" sqref="E65:E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,10 +2506,10 @@
         <v>44</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="46"/>
+      <c r="E39" s="48"/>
       <c r="F39" s="13">
         <v>29388</v>
       </c>
@@ -2458,10 +2523,10 @@
         <v>29387</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="46"/>
+      <c r="E40" s="48"/>
       <c r="F40" s="13">
         <v>29402</v>
       </c>
@@ -2473,10 +2538,10 @@
     <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="46"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="13">
         <v>29406</v>
       </c>
@@ -2488,10 +2553,10 @@
     <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="46"/>
+      <c r="E42" s="48"/>
       <c r="F42" s="13">
         <v>29408</v>
       </c>
@@ -2503,10 +2568,10 @@
     <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="46"/>
+      <c r="E43" s="48"/>
       <c r="F43" s="13">
         <v>29409</v>
       </c>
@@ -2518,10 +2583,10 @@
     <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="45" t="s">
+      <c r="D44" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="46"/>
+      <c r="E44" s="48"/>
       <c r="F44" s="13">
         <v>29414</v>
       </c>
@@ -2550,10 +2615,10 @@
         <v>52</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="45" t="s">
+      <c r="D46" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="46"/>
+      <c r="E46" s="48"/>
       <c r="F46" s="13">
         <v>29403</v>
       </c>
@@ -2567,10 +2632,10 @@
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="47" t="s">
+      <c r="D47" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="48"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -2582,10 +2647,10 @@
     <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="45" t="s">
+      <c r="D48" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="46"/>
+      <c r="E48" s="48"/>
       <c r="F48" s="13">
         <v>29463</v>
       </c>
@@ -2597,10 +2662,10 @@
     <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="48"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -2623,18 +2688,27 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
   </mergeCells>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2642,10 +2716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59AEDF-F159-462C-873D-997372408743}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,16 +2748,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2691,32 +2765,32 @@
         <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,24 +2798,24 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
         <v>384</v>
       </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>386</v>
-      </c>
       <c r="E7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2749,24 +2823,24 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
       </c>
       <c r="D9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2774,24 +2848,24 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C11" t="s">
         <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2799,10 +2873,10 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2810,16 +2884,51 @@
         <v>58</v>
       </c>
       <c r="D13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
+      <c r="D14" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2833,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3137,7 +3246,7 @@
         <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3223,7 +3332,7 @@
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3239,7 +3348,7 @@
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3464,10 +3573,10 @@
         <v>142</v>
       </c>
       <c r="E62" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F62" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
@@ -3978,7 +4087,7 @@
         <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
@@ -4055,7 +4164,7 @@
         <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
@@ -4065,7 +4174,7 @@
     </row>
     <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="123" spans="2:5" x14ac:dyDescent="0.25">
@@ -4085,7 +4194,7 @@
     </row>
     <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127" spans="2:5" x14ac:dyDescent="0.25">
@@ -4095,7 +4204,7 @@
     </row>
     <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="2:5" x14ac:dyDescent="0.25">
@@ -4125,189 +4234,189 @@
     </row>
     <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>287</v>
+        <v>398</v>
       </c>
     </row>
     <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E137" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>399</v>
       </c>
     </row>
     <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D141" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D143" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E150" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D152" s="39"/>
       <c r="E152" s="39" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E153" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="154" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E154" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="155" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E155" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D157" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E160" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="161" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E161" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="162" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="163" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E163">
         <v>100</v>
@@ -4326,12 +4435,12 @@
     </row>
     <row r="166" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E167" s="41">
         <v>0</v>
@@ -4339,7 +4448,7 @@
     </row>
     <row r="168" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E168">
         <v>40</v>
@@ -4347,7 +4456,7 @@
     </row>
     <row r="169" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E169">
         <v>400000</v>
@@ -4355,7 +4464,7 @@
     </row>
     <row r="170" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E170" s="42">
         <f>E169</f>
@@ -4364,7 +4473,7 @@
     </row>
     <row r="171" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E171">
         <v>600000</v>
@@ -4372,7 +4481,7 @@
     </row>
     <row r="172" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E172">
         <f>0.49*E164</f>
@@ -4381,7 +4490,7 @@
     </row>
     <row r="173" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E173">
         <v>9999</v>
@@ -4389,7 +4498,7 @@
     </row>
     <row r="174" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E174">
         <f>(E164-E169)/E164</f>
@@ -4398,48 +4507,48 @@
     </row>
     <row r="175" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="176" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="177" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
+        <v>333</v>
+      </c>
+      <c r="E177" t="s">
         <v>335</v>
-      </c>
-      <c r="E177" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="178" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="179" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -4529,13 +4638,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D72D4B-1DB9-4C16-B91B-E06627584291}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4568,7 +4678,7 @@
         <v>205</v>
       </c>
       <c r="J1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -4893,7 +5003,7 @@
         <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
@@ -4917,7 +5027,7 @@
         <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
@@ -4956,89 +5066,89 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
         <v>353</v>
-      </c>
-      <c r="C7" t="s">
-        <v>355</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>352</v>
+      </c>
+      <c r="C8" t="s">
         <v>354</v>
-      </c>
-      <c r="C8" t="s">
-        <v>356</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D10"/>
     </row>

--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\New SF\Personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\SF App Again\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E232013-6AEC-4380-9897-8342BA8831B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1710" windowWidth="13755" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="1710" windowWidth="13760" windowHeight="11390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Dropdown" sheetId="4" r:id="rId4"/>
     <sheet name="Validation" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="429">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -368,9 +367,6 @@
     <t>Page 1</t>
   </si>
   <si>
-    <t>please fill up the applicant's details to check</t>
-  </si>
-  <si>
     <t>Number of Applicant</t>
   </si>
   <si>
@@ -506,9 +502,6 @@
     <t>Captain</t>
   </si>
   <si>
-    <t>DYMM</t>
-  </si>
-  <si>
     <t>Datin</t>
   </si>
   <si>
@@ -542,9 +535,6 @@
     <t>Dr.</t>
   </si>
   <si>
-    <t>KDYTM</t>
-  </si>
-  <si>
     <t>Madam</t>
   </si>
   <si>
@@ -554,12 +544,6 @@
     <t>Mr.</t>
   </si>
   <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Ms.</t>
-  </si>
-  <si>
     <t>Prof.</t>
   </si>
   <si>
@@ -569,15 +553,6 @@
     <t>Puan Sri</t>
   </si>
   <si>
-    <t>TAN SRI DATO</t>
-  </si>
-  <si>
-    <t>TAN SRI DATO' DR</t>
-  </si>
-  <si>
-    <t>TUN DR.</t>
-  </si>
-  <si>
     <t>Tan Sri</t>
   </si>
   <si>
@@ -587,9 +562,6 @@
     <t>Tuan Haji</t>
   </si>
   <si>
-    <t>Tun</t>
-  </si>
-  <si>
     <t>Dropdown</t>
   </si>
   <si>
@@ -605,15 +577,9 @@
     <t>Bachelor</t>
   </si>
   <si>
-    <t>Below Secondary</t>
-  </si>
-  <si>
     <t>Diploma</t>
   </si>
   <si>
-    <t>Doctorate</t>
-  </si>
-  <si>
     <t>Masters</t>
   </si>
   <si>
@@ -632,24 +598,15 @@
     <t>Marital Status</t>
   </si>
   <si>
-    <t>Divorce</t>
-  </si>
-  <si>
     <t>Married</t>
   </si>
   <si>
-    <t>Non-obtainable</t>
-  </si>
-  <si>
     <t>Separated</t>
   </si>
   <si>
     <t>Single</t>
   </si>
   <si>
-    <t>Widow</t>
-  </si>
-  <si>
     <t>Country Code</t>
   </si>
   <si>
@@ -665,12 +622,6 @@
     <t>Bumi</t>
   </si>
   <si>
-    <t>External</t>
-  </si>
-  <si>
-    <t>Non-Bumi</t>
-  </si>
-  <si>
     <t>Employer</t>
   </si>
   <si>
@@ -857,12 +808,6 @@
     <t>Does the applicant have any other pending applications for this property with other banks?</t>
   </si>
   <si>
-    <t>Pension</t>
-  </si>
-  <si>
-    <t>Savings/Deposit</t>
-  </si>
-  <si>
     <t>Confirmation</t>
   </si>
   <si>
@@ -908,9 +853,6 @@
     <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower.</t>
   </si>
   <si>
-    <t>I/We have read, agree and accept the terms of the Maybank Group Privacy Statement (“PS") for marketing of products and services by Maybank Group / other entities referred to in the PS.</t>
-  </si>
-  <si>
     <t>Yes, I expressly agree to be contacted</t>
   </si>
   <si>
@@ -941,9 +883,6 @@
     <t>Search for Property</t>
   </si>
   <si>
-    <t>Successfully signed document.</t>
-  </si>
-  <si>
     <t>Property Name</t>
   </si>
   <si>
@@ -1121,9 +1060,6 @@
     <t>I/We agree that my personal and business data may be processed by Maybank or Maybank's selected credit reporting agency in accordance with the Credit Reporting Agencies (CRA) Act 2020 and Central Bank of Malaysia Act 2009.</t>
   </si>
   <si>
-    <t>I am/We are aware that margin of finance for third residential property is up to 70% of Open Market value or sale &amp; Purchase Price - whichever is lower</t>
-  </si>
-  <si>
     <t>I/We further undertake to notify Maybank in writing within 30 calendar days of any change of circumstances or information declared which cause the information contained herein to become incorrect.</t>
   </si>
   <si>
@@ -1142,12 +1078,6 @@
     <t>Upload applicant's mortgage application form or simplified consent form.</t>
   </si>
   <si>
-    <t>You can choose to save your progress as a draft before leaving and pick up from where you left off at a later time.</t>
-  </si>
-  <si>
-    <t>Kindly have your applicant provide their signature in the box below</t>
-  </si>
-  <si>
     <t>Thank you for your signature!</t>
   </si>
   <si>
@@ -1172,21 +1102,12 @@
     <t>The applicant is an existing Maybank customer. Their information will be pre-filled to help you speed up the application process.</t>
   </si>
   <si>
-    <t>Draft Application</t>
-  </si>
-  <si>
     <t>Pending Applicant's Information</t>
   </si>
   <si>
     <t>UCO Stage</t>
   </si>
   <si>
-    <t>Please complete your applicant's information to proceed.</t>
-  </si>
-  <si>
-    <t>No information available yet</t>
-  </si>
-  <si>
     <t>View Application Details</t>
   </si>
   <si>
@@ -1257,18 +1178,169 @@
   </si>
   <si>
     <t>View Reasons</t>
+  </si>
+  <si>
+    <t>applicant's details to check if they're an</t>
+  </si>
+  <si>
+    <t>851012-12-6985</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Draft Application: </t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>Divorced</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Phd/Doctorate</t>
+  </si>
+  <si>
+    <t>Mr/ Encik</t>
+  </si>
+  <si>
+    <t>Mrs/ Puan</t>
+  </si>
+  <si>
+    <t>Ms/ Cik</t>
+  </si>
+  <si>
+    <t>+93</t>
+  </si>
+  <si>
+    <t>+358</t>
+  </si>
+  <si>
+    <t>+355</t>
+  </si>
+  <si>
+    <t>+213</t>
+  </si>
+  <si>
+    <t>Not Obtainable</t>
+  </si>
+  <si>
+    <t>CITIZEN</t>
+  </si>
+  <si>
+    <t>PERM RESIDENT</t>
+  </si>
+  <si>
+    <t>NON RESIDENT</t>
+  </si>
+  <si>
+    <t>MM2H (MALAYSIA MY 2ND HOME)</t>
+  </si>
+  <si>
+    <t>WORK VISA</t>
+  </si>
+  <si>
+    <t>STUDENT VISA</t>
+  </si>
+  <si>
+    <t>DEPENDENT VISA</t>
+  </si>
+  <si>
+    <t>UNHCR</t>
+  </si>
+  <si>
+    <t>Widowed</t>
+  </si>
+  <si>
+    <t>SALARY/BONUS/COMMISSION FROM EMPLOYMENT</t>
+  </si>
+  <si>
+    <t>COMPANY PROFITS / DIVIDENDS</t>
+  </si>
+  <si>
+    <t>PENSION</t>
+  </si>
+  <si>
+    <t>LOANS</t>
+  </si>
+  <si>
+    <t>INTEREST PAYMENTS FROM LOAN ARRANGEMENT</t>
+  </si>
+  <si>
+    <t>SALE OF SHARES OR OTHER INVESTMENT</t>
+  </si>
+  <si>
+    <t>INHERITANCE/GIFT</t>
+  </si>
+  <si>
+    <t>ALLOWANCES</t>
+  </si>
+  <si>
+    <t>SAVINGS / DEPOSITS</t>
+  </si>
+  <si>
+    <t>INHERITANCE / GIFT</t>
+  </si>
+  <si>
+    <t>SALE OF ASSET</t>
+  </si>
+  <si>
+    <t>COMPANY SALE</t>
+  </si>
+  <si>
+    <t>LEGAL SETTLEMENTS / CLAIMS / INSURANCE PAYOUTS</t>
+  </si>
+  <si>
+    <t>MATURITY / SURRENDER OF LIFE POLICY</t>
+  </si>
+  <si>
+    <t>SOW</t>
+  </si>
+  <si>
+    <t>060718089003</t>
+  </si>
+  <si>
+    <t>You can choose to save your progress as a draft before leaving and pick-up from where you left off at a later time</t>
+  </si>
+  <si>
+    <t>881112291212</t>
+  </si>
+  <si>
+    <t>550718089003</t>
+  </si>
+  <si>
+    <t>Term &amp; Conditions</t>
+  </si>
+  <si>
+    <t>I/We have read, agree and accept the terms of the Maybank Group  Privacy Statement (“PS") for marketing of products and services by Maybank Group /other entities referred to in the PS.</t>
+  </si>
+  <si>
+    <t>Kindly have your applicant provide their signature in the box below 0</t>
+  </si>
+  <si>
+    <t>Consent submitted successfully</t>
+  </si>
+  <si>
+    <t>Pending Applicant’s Information</t>
+  </si>
+  <si>
+    <t>Please complete your applicant’s information to proceed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID Number </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="000000\-00\-0000"/>
     <numFmt numFmtId="165" formatCode="&quot;RM&quot;\ #,##0.00_-;\-&quot;RM&quot;* #,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;RM&quot;\ #,##0.00;[Red]\-&quot;RM&quot;#,##0.00"/>
     <numFmt numFmtId="167" formatCode="&quot;RM&quot;\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="####\-####"/>
+    <numFmt numFmtId="169" formatCode="00000000\-0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1448,7 +1520,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1556,6 +1628,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1574,12 +1647,86 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1955,23 +2102,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E85" sqref="E65:E85"/>
+    <sheetView topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="75.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="31"/>
+    <col min="3" max="3" width="1.81640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="96.90625" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="31"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +2136,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="19">
         <v>27196</v>
       </c>
@@ -2019,7 +2168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="7" t="s">
@@ -2033,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="7" t="s">
@@ -2047,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="7" t="s">
@@ -2061,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
@@ -2075,7 +2224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
@@ -2089,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
@@ -2103,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
@@ -2117,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="7" t="s">
@@ -2131,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
@@ -2145,7 +2294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="7" t="s">
@@ -2159,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
@@ -2173,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
@@ -2187,7 +2336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="7" t="s">
@@ -2201,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
@@ -2217,7 +2366,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="19">
         <v>27480</v>
       </c>
@@ -2233,7 +2382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
@@ -2247,7 +2396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="11" t="s">
@@ -2261,7 +2410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="7" t="s">
@@ -2275,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="7" t="s">
@@ -2289,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
@@ -2305,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="19">
         <v>27481</v>
       </c>
@@ -2321,7 +2470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
@@ -2335,7 +2484,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="15"/>
@@ -2343,7 +2492,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
@@ -2359,7 +2508,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="19">
         <v>28360</v>
       </c>
@@ -2375,7 +2524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
@@ -2389,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
@@ -2403,7 +2552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
@@ -2417,7 +2566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
@@ -2431,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
@@ -2445,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="7" t="s">
@@ -2459,7 +2608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="7" t="s">
@@ -2473,7 +2622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="7" t="s">
@@ -2487,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="7" t="s">
@@ -2501,15 +2650,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B39" s="25" t="s">
         <v>44</v>
       </c>
       <c r="C39" s="26"/>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="48"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="13">
         <v>29388</v>
       </c>
@@ -2518,15 +2667,15 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B40" s="27">
         <v>29387</v>
       </c>
       <c r="C40" s="28"/>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="48"/>
+      <c r="E40" s="49"/>
       <c r="F40" s="13">
         <v>29402</v>
       </c>
@@ -2535,13 +2684,13 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="48"/>
+      <c r="E41" s="49"/>
       <c r="F41" s="13">
         <v>29406</v>
       </c>
@@ -2550,13 +2699,13 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="48"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="13">
         <v>29408</v>
       </c>
@@ -2565,13 +2714,13 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E43" s="48"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="13">
         <v>29409</v>
       </c>
@@ -2580,13 +2729,13 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E44" s="48"/>
+      <c r="E44" s="49"/>
       <c r="F44" s="13">
         <v>29414</v>
       </c>
@@ -2595,13 +2744,13 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="49" t="s">
+      <c r="D45" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="50"/>
+      <c r="E45" s="51"/>
       <c r="F45" s="13">
         <v>29496</v>
       </c>
@@ -2610,15 +2759,15 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="17" t="s">
         <v>52</v>
       </c>
       <c r="C46" s="18"/>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="E46" s="48"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="13">
         <v>29403</v>
       </c>
@@ -2627,15 +2776,15 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B47" s="19">
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="46"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -2644,13 +2793,13 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="48" t="s">
         <v>54</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="13">
         <v>29463</v>
       </c>
@@ -2659,13 +2808,13 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="46"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -2674,7 +2823,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2683,8 +2832,33 @@
       <c r="G50" s="32"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B51" s="3"/>
+    </row>
+    <row r="81" spans="5:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E81" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="E82" s="30" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E101" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E103" t="s">
+        <v>372</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2701,13 +2875,34 @@
     <mergeCell ref="D45:E45"/>
   </mergeCells>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  <conditionalFormatting sqref="E1:E80 E82:E1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E81">
+    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:E84">
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E79:E83">
+    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E77:E89">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E99:E105">
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2715,21 +2910,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E59AEDF-F159-462C-873D-997372408743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" customWidth="1"/>
+    <col min="3" max="3" width="36.81640625" customWidth="1"/>
+    <col min="4" max="4" width="38.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2746,188 +2941,188 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>358</v>
+      </c>
+      <c r="E7" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>359</v>
+      </c>
+      <c r="E8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>363</v>
+      </c>
+      <c r="E10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>365</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
         <v>371</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
         <v>377</v>
       </c>
-      <c r="E5" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>379</v>
-      </c>
-      <c r="E6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>384</v>
-      </c>
-      <c r="E7" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>385</v>
-      </c>
-      <c r="E8" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>388</v>
-      </c>
-      <c r="E9" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>391</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -2939,24 +3134,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.7265625" customWidth="1"/>
+    <col min="4" max="4" width="40.1796875" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2973,10 +3168,10 @@
         <v>60</v>
       </c>
       <c r="F1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -2993,7 +3188,7 @@
         <v>1038012</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3010,12 +3205,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -3024,9 +3219,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
         <v>99</v>
@@ -3038,7 +3233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -3046,7 +3241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -3054,7 +3249,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -3062,7 +3257,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -3073,7 +3268,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -3081,7 +3276,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -3089,7 +3284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -3097,7 +3292,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -3108,7 +3303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -3119,7 +3314,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -3127,7 +3322,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -3138,7 +3333,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -3149,7 +3344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>58</v>
       </c>
@@ -3160,7 +3355,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -3171,7 +3366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -3179,7 +3374,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -3187,7 +3382,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -3195,7 +3390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -3206,7 +3401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -3214,7 +3409,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>58</v>
       </c>
@@ -3222,7 +3417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -3230,7 +3425,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>58</v>
       </c>
@@ -3238,7 +3433,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -3246,10 +3441,10 @@
         <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>58</v>
       </c>
@@ -3257,7 +3452,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -3265,7 +3460,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -3273,7 +3468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -3281,7 +3476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
         <v>58</v>
       </c>
@@ -3289,7 +3484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -3297,7 +3492,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C35" t="s">
         <v>58</v>
       </c>
@@ -3305,7 +3500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -3313,7 +3508,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -3327,665 +3522,666 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C39" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>58</v>
       </c>
       <c r="D45" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
         <v>114</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="E51" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D50" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="E50" s="43" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E51" s="43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>58</v>
-      </c>
-      <c r="D52" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>58</v>
-      </c>
-      <c r="D53" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>58</v>
-      </c>
-      <c r="D54" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" t="s">
-        <v>58</v>
-      </c>
-      <c r="D55" t="s">
-        <v>117</v>
       </c>
       <c r="E55" s="35">
         <v>851012126985</v>
       </c>
-    </row>
-    <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C56" t="s">
         <v>58</v>
       </c>
       <c r="D56" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="36" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" t="s">
         <v>130</v>
       </c>
-      <c r="E56" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>58</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" s="35" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s">
         <v>131</v>
       </c>
-      <c r="E57" s="37">
-        <f>E55</f>
-        <v>851012126985</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="E58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
         <v>132</v>
       </c>
-      <c r="E58" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="E60" s="37"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>58</v>
-      </c>
-      <c r="D61" t="s">
-        <v>135</v>
-      </c>
       <c r="E61" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" t="s">
         <v>141</v>
       </c>
-      <c r="C62" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>340</v>
+      </c>
+      <c r="F62" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s">
         <v>142</v>
       </c>
-      <c r="E62" t="s">
-        <v>361</v>
-      </c>
-      <c r="F62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C64" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" t="s">
         <v>143</v>
       </c>
-      <c r="E63" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C64" t="s">
-        <v>58</v>
-      </c>
-      <c r="D64" t="s">
+    </row>
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" t="s">
+        <v>58</v>
+      </c>
+      <c r="D65" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" t="s">
-        <v>58</v>
-      </c>
-      <c r="D65" t="s">
-        <v>145</v>
-      </c>
       <c r="E65" s="34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C66" t="s">
         <v>58</v>
       </c>
       <c r="D66" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E66" s="34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C67" t="s">
         <v>58</v>
       </c>
       <c r="D67" t="s">
+        <v>174</v>
+      </c>
+      <c r="E67" s="34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C68" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" t="s">
         <v>183</v>
       </c>
-      <c r="E67" s="34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C68" t="s">
-        <v>58</v>
-      </c>
-      <c r="D68" t="s">
-        <v>194</v>
-      </c>
       <c r="E68" s="34" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C69" t="s">
         <v>58</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E69" s="34" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C70" t="s">
         <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E70" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C71" t="s">
         <v>58</v>
       </c>
       <c r="D71" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E71" s="34">
         <v>142255683</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C72" t="s">
         <v>58</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="E72" s="34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>58</v>
+      </c>
+      <c r="D73" t="s">
+        <v>190</v>
+      </c>
+      <c r="E73" s="34" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>191</v>
+      </c>
+      <c r="E74" s="34" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D73" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" s="34" t="s">
+      <c r="C75" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="34" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>58</v>
+      </c>
+      <c r="D77" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>58</v>
+      </c>
+      <c r="D78" t="s">
+        <v>211</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="74" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" t="s">
-        <v>205</v>
-      </c>
-      <c r="E74" s="34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C75" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>58</v>
-      </c>
-      <c r="D76" t="s">
-        <v>224</v>
-      </c>
-      <c r="E76" s="34" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>58</v>
-      </c>
-      <c r="D77" t="s">
-        <v>226</v>
-      </c>
-      <c r="E77" s="34" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C78" t="s">
-        <v>58</v>
-      </c>
-      <c r="D78" t="s">
-        <v>227</v>
-      </c>
-      <c r="E78" s="34" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C79" t="s">
-        <v>58</v>
-      </c>
-      <c r="D79" t="s">
-        <v>228</v>
-      </c>
       <c r="E79" s="34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C80" t="s">
         <v>58</v>
       </c>
       <c r="D80" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E80" s="34">
         <v>46000</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C81" t="s">
         <v>58</v>
       </c>
       <c r="D81" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>112</v>
+      </c>
+      <c r="C83" t="s">
+        <v>58</v>
+      </c>
+      <c r="D83" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D84" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C85" t="s">
+        <v>58</v>
+      </c>
+      <c r="D85" t="s">
+        <v>219</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C86" t="s">
+        <v>58</v>
+      </c>
+      <c r="D86" t="s">
+        <v>222</v>
+      </c>
+      <c r="E86" s="34" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C87" t="s">
+        <v>58</v>
+      </c>
+      <c r="D87" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="34" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
-        <v>58</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E88" s="34" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" t="s">
-        <v>58</v>
-      </c>
-      <c r="D83" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C85" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85" s="34" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C86" t="s">
-        <v>58</v>
-      </c>
-      <c r="D86" t="s">
-        <v>238</v>
-      </c>
-      <c r="E86" s="34" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" t="s">
-        <v>239</v>
-      </c>
-      <c r="E87" s="34" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" t="s">
-        <v>246</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C89" t="s">
         <v>58</v>
       </c>
       <c r="D89" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C90" t="s">
         <v>58</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E90" s="34">
         <v>144225681</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C91" t="s">
         <v>58</v>
       </c>
       <c r="D91" t="s">
+        <v>225</v>
+      </c>
+      <c r="E91" s="34" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C92" t="s">
+        <v>58</v>
+      </c>
+      <c r="E92" s="34" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>58</v>
+      </c>
+      <c r="D93" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" t="s">
+        <v>235</v>
+      </c>
+      <c r="E95" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+      <c r="D96" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" t="s">
         <v>241</v>
       </c>
-      <c r="E91" s="34" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C92" t="s">
-        <v>58</v>
-      </c>
-      <c r="E92" s="34" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
-        <v>58</v>
-      </c>
-      <c r="D94" t="s">
-        <v>224</v>
-      </c>
-      <c r="E94" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>58</v>
-      </c>
-      <c r="D95" t="s">
-        <v>251</v>
-      </c>
-      <c r="E95" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
-        <v>58</v>
-      </c>
-      <c r="D96" t="s">
-        <v>252</v>
-      </c>
-      <c r="E96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C97" t="s">
         <v>58</v>
       </c>
       <c r="D97" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C98" t="s">
         <v>58</v>
       </c>
       <c r="D98" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E98">
         <v>46000</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C99" t="s">
         <v>58</v>
       </c>
       <c r="D99" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C100" t="s">
         <v>58</v>
       </c>
       <c r="D100" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C101" t="s">
         <v>58</v>
       </c>
@@ -3997,632 +4193,643 @@
         <v>44836800</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C103" t="s">
         <v>58</v>
       </c>
       <c r="D103" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E103">
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C104" t="s">
         <v>58</v>
       </c>
       <c r="D104" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E104">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C105" t="s">
         <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E105">
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C106" t="s">
         <v>58</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+      <c r="E106" s="52">
+        <f>E103</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B107" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
         <v>58</v>
       </c>
       <c r="D107" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="E107" s="52">
+        <f>E105</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C108" t="s">
         <v>58</v>
       </c>
       <c r="D108" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C109" t="s">
         <v>58</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C110" t="s">
         <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C111" t="s">
         <v>58</v>
       </c>
       <c r="D111" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="C112" t="s">
         <v>58</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="C113" t="s">
         <v>58</v>
       </c>
       <c r="D113" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E113" s="38" t="str">
         <f>E70&amp;E71</f>
         <v>+60142255683</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E114" t="str">
         <f>TEXT(E113,"+# ## ### ####")</f>
         <v>+60 14 225 5683</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D115" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="E115" t="str">
         <f>E77&amp;", "&amp;E78&amp;", "&amp;E79&amp;", "&amp;E80&amp;" "&amp;E99&amp;", "&amp;E94</f>
         <v>23 Jalan Air Itam, Taman Harmony, Ampang, 46000 Selangor, Malaysia</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D116" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D117" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D119" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" t="s">
+        <v>259</v>
+      </c>
+      <c r="C120" t="s">
+        <v>58</v>
+      </c>
+      <c r="D120" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D121" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D122" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D124" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D125" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D126" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D127" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D128" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D129" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D130" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D131" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D132" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D133" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D134" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D135" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D136" t="s">
+        <v>339</v>
+      </c>
+      <c r="E136" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D137" t="s">
+        <v>423</v>
+      </c>
+      <c r="E137" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D138" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D139" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D140" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B141" t="s">
+        <v>272</v>
+      </c>
+      <c r="D141" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D142" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B143" t="s">
+        <v>274</v>
+      </c>
+      <c r="D143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D145" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D146" t="s">
         <v>277</v>
       </c>
-      <c r="C120" t="s">
-        <v>58</v>
-      </c>
-      <c r="D120" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D147" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D122" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D123" t="s">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D148" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D149" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
+      <c r="E149" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D126" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D127" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D128" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D129" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D150" t="s">
+        <v>286</v>
+      </c>
+      <c r="E150" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="E151" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D132" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D134" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D135" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D136" t="s">
-        <v>360</v>
-      </c>
-      <c r="E136" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D137" t="s">
-        <v>288</v>
-      </c>
-      <c r="E137" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D138" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D139" t="s">
-        <v>290</v>
-      </c>
-      <c r="E139" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D140" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>291</v>
-      </c>
-      <c r="D141" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D142" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>293</v>
-      </c>
-      <c r="D143" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D144" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D145" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D146" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D147" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
-        <v>298</v>
-      </c>
-      <c r="E149" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D150" t="s">
-        <v>306</v>
-      </c>
-      <c r="E150" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E151" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D152" s="39"/>
       <c r="E152" s="39" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E153" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E154" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D155" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E155" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E156" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B157" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D157" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D158" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D159" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D160" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D161" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="E161" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D162" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D163" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E163">
         <v>100</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E164">
         <v>500000</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E165" s="40">
         <f>E164</f>
         <v>500000</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D166" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D167" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E167" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D168" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="E168">
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D169" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="E169">
         <v>400000</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D170" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="E170" s="42">
         <f>E169</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D171" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="E171">
         <v>600000</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D172" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="E172">
         <f>0.49*E164</f>
         <v>245000</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D173" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="E173">
         <v>9999</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D174" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="E174">
         <f>(E164-E169)/E164</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D175" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D176" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D177" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E178" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D179" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E179" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
       <c r="E180" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D181" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D182" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D131:D133 D135:D139">
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134:E134">
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132:D138">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134:E134">
+  <conditionalFormatting sqref="D108:D115">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:D138">
+  <conditionalFormatting sqref="D57:D59">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108:D115">
+  <conditionalFormatting sqref="D135:D138">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
       <formula1>"1 Applicant,2 Applicants"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67" xr:uid="{E20C7125-A24C-4CE7-A7E7-0ADB1BD76CF2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83" xr:uid="{346845DF-0081-42B9-A55D-2B72995FF149}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E152" r:id="rId1" xr:uid="{74208B04-A5C8-461E-9B92-7B86D5A8FEFE}"/>
+    <hyperlink ref="E152" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4E7D0B48-4E7B-4871-B011-1D29E7ABD1C2}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{16F8311E-F563-40D0-95EF-0B567354BAD7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$B$2:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>E66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{20116C7B-2D13-43C0-A2EF-F568FF6A0F10}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$D$2:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>E68</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2E18A1F-60AA-4D66-BC71-AED1DFFD34DE}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$E$2:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C8674F2D-AE24-4FA2-B97D-0C8160A6CB92}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$G:$G</xm:f>
           </x14:formula1>
           <xm:sqref>E72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{71128026-EE90-4774-8B76-CC1143E240BB}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$H$2:$H$9</xm:f>
           </x14:formula1>
           <xm:sqref>E73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D0C857CB-B269-46C4-8C88-B3755789C06F}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Dropdown!$I$2:$I$7</xm:f>
           </x14:formula1>
@@ -4635,686 +4842,771 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D72D4B-1DB9-4C16-B91B-E06627584291}">
-  <dimension ref="A1:J32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" customWidth="1"/>
-    <col min="9" max="9" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="25.1796875" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="23.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E1" t="s">
+        <v>184</v>
+      </c>
+      <c r="F1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K1" t="s">
+        <v>251</v>
+      </c>
+      <c r="L1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>145</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>389</v>
+      </c>
+      <c r="G2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K2" t="s">
+        <v>410</v>
+      </c>
+      <c r="L2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I3" t="s">
+        <v>202</v>
+      </c>
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+      <c r="K3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" t="s">
+        <v>428</v>
+      </c>
+      <c r="K4" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>392</v>
+      </c>
+      <c r="G5" t="s">
+        <v>396</v>
+      </c>
+      <c r="H5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I5" t="s">
+        <v>203</v>
+      </c>
+      <c r="J5" t="s">
+        <v>144</v>
+      </c>
+      <c r="K5" t="s">
+        <v>407</v>
+      </c>
+      <c r="L5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" t="s">
+        <v>187</v>
+      </c>
+      <c r="G6" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" t="s">
+        <v>204</v>
+      </c>
+      <c r="J6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K6" t="s">
+        <v>406</v>
+      </c>
+      <c r="L6" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E7" t="s">
+        <v>402</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>198</v>
+      </c>
+      <c r="I7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K7" t="s">
+        <v>405</v>
+      </c>
+      <c r="L7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" t="s">
         <v>183</v>
       </c>
-      <c r="D1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G1" t="s">
-        <v>203</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K8" t="s">
+        <v>403</v>
+      </c>
+      <c r="L8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" t="s">
+        <v>182</v>
+      </c>
+      <c r="G9" t="s">
+        <v>398</v>
+      </c>
+      <c r="H9" t="s">
+        <v>200</v>
+      </c>
+      <c r="J9" t="s">
         <v>184</v>
       </c>
-      <c r="D2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" t="s">
-        <v>209</v>
-      </c>
-      <c r="I2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="K9" t="s">
+        <v>408</v>
+      </c>
+      <c r="L9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>164</v>
+      </c>
+      <c r="J14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
         <v>207</v>
       </c>
-      <c r="H3" t="s">
-        <v>210</v>
-      </c>
-      <c r="I3" t="s">
-        <v>218</v>
-      </c>
-      <c r="J3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" t="s">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+      <c r="J16" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>387</v>
+      </c>
+      <c r="J17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>388</v>
+      </c>
+      <c r="J18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
         <v>208</v>
       </c>
-      <c r="H4" t="s">
-        <v>211</v>
-      </c>
-      <c r="I4" t="s">
-        <v>150</v>
-      </c>
-      <c r="J4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" t="s">
-        <v>219</v>
-      </c>
-      <c r="J5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" t="s">
-        <v>200</v>
-      </c>
-      <c r="H6" t="s">
-        <v>213</v>
-      </c>
-      <c r="I6" t="s">
-        <v>220</v>
-      </c>
-      <c r="J6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" t="s">
-        <v>214</v>
-      </c>
-      <c r="I7" t="s">
-        <v>221</v>
-      </c>
-      <c r="J7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>159</v>
-      </c>
-      <c r="D8" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>160</v>
-      </c>
-      <c r="D9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>161</v>
-      </c>
-      <c r="J10" t="s">
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>382</v>
+      </c>
+      <c r="J24" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>172</v>
+      </c>
+      <c r="J25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="J12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>164</v>
-      </c>
-      <c r="J13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>165</v>
-      </c>
-      <c r="J14" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="J15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>167</v>
-      </c>
-      <c r="J16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>169</v>
-      </c>
-      <c r="J18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>170</v>
-      </c>
-      <c r="J19" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>171</v>
-      </c>
-      <c r="J20" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>172</v>
-      </c>
-      <c r="J21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>174</v>
-      </c>
-      <c r="J23" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>175</v>
-      </c>
-      <c r="J24" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J27" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J30" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="J32" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>176</v>
-      </c>
-      <c r="J25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>177</v>
-      </c>
-      <c r="J26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>178</v>
-      </c>
-      <c r="J27" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>179</v>
-      </c>
-      <c r="J28" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>180</v>
-      </c>
-      <c r="J29" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J31" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="J32" t="s">
-        <v>270</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="L2:L9">
+    <sortCondition ref="L2"/>
+  </sortState>
   <conditionalFormatting sqref="J28:J32">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
+        <v>420</v>
+      </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="29" t="s">
+        <v>420</v>
+      </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="C3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="29"/>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="43"/>
       <c r="B5" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="53" t="s">
+        <v>418</v>
+      </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="53" t="s">
+        <v>421</v>
+      </c>
       <c r="B7" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C7" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="C8" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="C9" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C10" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
       <c r="D65"/>
     </row>
   </sheetData>

--- a/SFProject.xlsx
+++ b/SFProject.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\00139711\Documents\Katalons\SF App Again\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Katalon\Saves\New SF\Personal\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9892D4-3D34-4150-A441-2DF4023DF87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="1710" windowWidth="13760" windowHeight="11390" activeTab="3"/>
+    <workbookView xWindow="10395" yWindow="960" windowWidth="13755" windowHeight="11385" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Dropdown" sheetId="4" r:id="rId4"/>
     <sheet name="Validation" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="430">
   <si>
     <t>MAYA EPIC</t>
   </si>
@@ -868,63 +869,30 @@
     <t>Search Property</t>
   </si>
   <si>
-    <t>Please fill up the following details to check your applicant's eligibility</t>
-  </si>
-  <si>
     <t>Property Details</t>
   </si>
   <si>
     <t>Is the property a primary market/ under construction?</t>
   </si>
   <si>
-    <t>Select "No" if it's a sub-sale/ non-EF property</t>
-  </si>
-  <si>
     <t>Search for Property</t>
   </si>
   <si>
     <t>Property Name</t>
   </si>
   <si>
-    <t>Kyra 1</t>
-  </si>
-  <si>
-    <t>K*@yra 1</t>
-  </si>
-  <si>
-    <t>NoKyra 1</t>
-  </si>
-  <si>
-    <t>saKyraas 1</t>
-  </si>
-  <si>
-    <t>K YRA 1</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>YKRA 1</t>
-  </si>
-  <si>
-    <t>Kasdyra</t>
-  </si>
-  <si>
-    <t>Kyr</t>
-  </si>
-  <si>
     <t>No Property Found</t>
   </si>
   <si>
     <t>Try searching a different keyword.</t>
   </si>
   <si>
-    <t>Could the property be a sub-sale or non-EF property instead?</t>
-  </si>
-  <si>
     <t>No property name</t>
   </si>
   <si>
@@ -940,15 +908,9 @@
     <t>Property Price</t>
   </si>
   <si>
-    <t>Type A-2</t>
-  </si>
-  <si>
     <t>1-1201</t>
   </si>
   <si>
-    <t>ABCDEFGHIJKLMNOPQRSTUVWYZ</t>
-  </si>
-  <si>
     <t>Financing Details</t>
   </si>
   <si>
@@ -958,18 +920,9 @@
     <t>Financing Period</t>
   </si>
   <si>
-    <t>The financing amount cannot be more than the property price</t>
-  </si>
-  <si>
-    <t>(Inclusive of BICC Period)</t>
-  </si>
-  <si>
     <t>The loan amount cannot be more than the property price</t>
   </si>
   <si>
-    <t>Loan amount must be at least RM10,000</t>
-  </si>
-  <si>
     <t>Loan amount must be more than 50% of the property price</t>
   </si>
   <si>
@@ -997,9 +950,6 @@
     <t>My First Home Scheme / Skim Rumah Pertamaku</t>
   </si>
   <si>
-    <t>MaxiHome</t>
-  </si>
-  <si>
     <t>NRIC</t>
   </si>
   <si>
@@ -1117,21 +1067,12 @@
     <t>Continue</t>
   </si>
   <si>
-    <t>Pending Applicant's Consent</t>
-  </si>
-  <si>
-    <t>Kindly obtain your applicant's consent to proceed.</t>
-  </si>
-  <si>
     <t>Submit Consent</t>
   </si>
   <si>
     <t>Property Selection Stage</t>
   </si>
   <si>
-    <t>Pending Eligibility Check</t>
-  </si>
-  <si>
     <t>Kindly complete the eligibility check before proceeding.</t>
   </si>
   <si>
@@ -1144,18 +1085,12 @@
     <t>Pending Data Entry</t>
   </si>
   <si>
-    <t>Kindly submit your applicant's consent form to proceed.</t>
-  </si>
-  <si>
     <t>Application Details</t>
   </si>
   <si>
     <t>Title</t>
   </si>
   <si>
-    <t>Non-bank commitments</t>
-  </si>
-  <si>
     <t>Your application draft has been saved. You can come back and complete the application later.</t>
   </si>
   <si>
@@ -1300,9 +1235,6 @@
     <t>060718089003</t>
   </si>
   <si>
-    <t>You can choose to save your progress as a draft before leaving and pick-up from where you left off at a later time</t>
-  </si>
-  <si>
     <t>881112291212</t>
   </si>
   <si>
@@ -1328,19 +1260,91 @@
   </si>
   <si>
     <t xml:space="preserve">ID Number </t>
+  </si>
+  <si>
+    <t>Non-bank Commitments</t>
+  </si>
+  <si>
+    <t>You can choose to save your progress as a draft before leaving and pick-up from where you left off at a later time.</t>
+  </si>
+  <si>
+    <t>Pending Applicant’s Consent</t>
+  </si>
+  <si>
+    <t>Kindly submit your applicant’s consent form to proceed.</t>
+  </si>
+  <si>
+    <t>Pending Applicant’s Financing Details</t>
+  </si>
+  <si>
+    <t>Kindly start the data entry process to proceed.</t>
+  </si>
+  <si>
+    <t>your applicant's eligibility</t>
+  </si>
+  <si>
+    <t>Taman Botani ABC</t>
+  </si>
+  <si>
+    <t>Tam</t>
+  </si>
+  <si>
+    <t>saTamasan</t>
+  </si>
+  <si>
+    <t>T*@aman Botani</t>
+  </si>
+  <si>
+    <t>NoTaman Botani</t>
+  </si>
+  <si>
+    <t>T AMAN BOTANI</t>
+  </si>
+  <si>
+    <t>ATMNA BTO</t>
+  </si>
+  <si>
+    <t>Tasdaman</t>
+  </si>
+  <si>
+    <t>Could the property be a sub-sale or non-EF property</t>
+  </si>
+  <si>
+    <t>instead?</t>
+  </si>
+  <si>
+    <t>123456789112345678921</t>
+  </si>
+  <si>
+    <t>Correct amount</t>
+  </si>
+  <si>
+    <t>Select "No" if it's a sub-sale/non-EF property.</t>
+  </si>
+  <si>
+    <t>Please fill up the following details to check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please input an amount between </t>
+  </si>
+  <si>
+    <t>Loan amount must be at least RM10,000.00</t>
+  </si>
+  <si>
+    <t>Maxi Home</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="000000\-00\-0000"/>
     <numFmt numFmtId="165" formatCode="&quot;RM&quot;\ #,##0.00_-;\-&quot;RM&quot;* #,##0.00"/>
     <numFmt numFmtId="166" formatCode="&quot;RM&quot;\ #,##0.00;[Red]\-&quot;RM&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;RM&quot;\ #,##0.00"/>
     <numFmt numFmtId="168" formatCode="####\-####"/>
-    <numFmt numFmtId="169" formatCode="00000000\-0000"/>
+    <numFmt numFmtId="169" formatCode="&quot;RM&quot;\ #,##0.00;\-&quot;RM&quot;#,##0.00"/>
+    <numFmt numFmtId="170" formatCode="yyyy"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1625,20 +1629,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1647,16 +1655,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2102,25 +2116,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H103"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E101" sqref="E101"/>
+    <sheetView topLeftCell="E96" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E108" sqref="E108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="1.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="96.90625" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="31"/>
+    <col min="3" max="3" width="1.85546875" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="96.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="31" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="31"/>
     <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
@@ -2152,7 +2166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="19">
         <v>27196</v>
       </c>
@@ -2168,7 +2182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
       <c r="D5" s="7" t="s">
@@ -2182,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="21"/>
       <c r="C6" s="22"/>
       <c r="D6" s="7" t="s">
@@ -2196,7 +2210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="21"/>
       <c r="C7" s="22"/>
       <c r="D7" s="7" t="s">
@@ -2210,7 +2224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="21"/>
       <c r="C8" s="22"/>
       <c r="D8" s="7" t="s">
@@ -2224,7 +2238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="21"/>
       <c r="C9" s="22"/>
       <c r="D9" s="7" t="s">
@@ -2238,7 +2252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="7" t="s">
@@ -2252,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="21"/>
       <c r="C11" s="22"/>
       <c r="D11" s="7" t="s">
@@ -2266,7 +2280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="21"/>
       <c r="C12" s="22"/>
       <c r="D12" s="7" t="s">
@@ -2280,7 +2294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
       <c r="D13" s="7" t="s">
@@ -2294,7 +2308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
       <c r="D14" s="7" t="s">
@@ -2308,7 +2322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
@@ -2322,7 +2336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
@@ -2336,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="23"/>
       <c r="C17" s="24"/>
       <c r="D17" s="7" t="s">
@@ -2350,7 +2364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
@@ -2366,7 +2380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19">
         <v>27480</v>
       </c>
@@ -2382,7 +2396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="21"/>
       <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
@@ -2396,7 +2410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="21"/>
       <c r="C21" s="22"/>
       <c r="D21" s="11" t="s">
@@ -2410,7 +2424,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="21"/>
       <c r="C22" s="22"/>
       <c r="D22" s="7" t="s">
@@ -2424,7 +2438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="23"/>
       <c r="C23" s="24"/>
       <c r="D23" s="7" t="s">
@@ -2438,7 +2452,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:7" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
         <v>28</v>
       </c>
@@ -2454,7 +2468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="19">
         <v>27481</v>
       </c>
@@ -2470,7 +2484,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="21"/>
       <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
@@ -2484,7 +2498,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="23"/>
       <c r="C27" s="24"/>
       <c r="D27" s="15"/>
@@ -2492,7 +2506,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="10"/>
     </row>
-    <row r="28" spans="2:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="17" t="s">
         <v>32</v>
       </c>
@@ -2508,7 +2522,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="19">
         <v>28360</v>
       </c>
@@ -2524,7 +2538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="21"/>
       <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
@@ -2538,7 +2552,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="21"/>
       <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
@@ -2552,7 +2566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="21"/>
       <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
@@ -2566,7 +2580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="21"/>
       <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
@@ -2580,7 +2594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="21"/>
       <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
@@ -2594,7 +2608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="21"/>
       <c r="C35" s="22"/>
       <c r="D35" s="7" t="s">
@@ -2608,7 +2622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="21"/>
       <c r="C36" s="22"/>
       <c r="D36" s="7" t="s">
@@ -2622,7 +2636,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="21"/>
       <c r="C37" s="22"/>
       <c r="D37" s="7" t="s">
@@ -2636,7 +2650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="23"/>
       <c r="C38" s="24"/>
       <c r="D38" s="7" t="s">
@@ -2650,7 +2664,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="25" t="s">
         <v>44</v>
       </c>
@@ -2667,7 +2681,7 @@
       </c>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="27">
         <v>29387</v>
       </c>
@@ -2684,7 +2698,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="21"/>
       <c r="C41" s="22"/>
       <c r="D41" s="48" t="s">
@@ -2699,7 +2713,7 @@
       </c>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="21"/>
       <c r="C42" s="22"/>
       <c r="D42" s="48" t="s">
@@ -2714,7 +2728,7 @@
       </c>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="21"/>
       <c r="C43" s="22"/>
       <c r="D43" s="48" t="s">
@@ -2729,7 +2743,7 @@
       </c>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B44" s="21"/>
       <c r="C44" s="22"/>
       <c r="D44" s="48" t="s">
@@ -2744,13 +2758,13 @@
       </c>
       <c r="H44" s="1"/>
     </row>
-    <row r="45" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="23"/>
       <c r="C45" s="24"/>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="53"/>
       <c r="F45" s="13">
         <v>29496</v>
       </c>
@@ -2759,7 +2773,7 @@
       </c>
       <c r="H45" s="1"/>
     </row>
-    <row r="46" spans="2:8" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:8" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="17" t="s">
         <v>52</v>
       </c>
@@ -2776,15 +2790,15 @@
       </c>
       <c r="H46" s="1"/>
     </row>
-    <row r="47" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="19">
         <v>28889</v>
       </c>
       <c r="C47" s="20"/>
-      <c r="D47" s="46" t="s">
+      <c r="D47" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="47"/>
+      <c r="E47" s="51"/>
       <c r="F47" s="9">
         <v>29386</v>
       </c>
@@ -2793,7 +2807,7 @@
       </c>
       <c r="H47" s="1"/>
     </row>
-    <row r="48" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="21"/>
       <c r="C48" s="22"/>
       <c r="D48" s="48" t="s">
@@ -2808,13 +2822,13 @@
       </c>
       <c r="H48" s="1"/>
     </row>
-    <row r="49" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="23"/>
       <c r="C49" s="24"/>
-      <c r="D49" s="46" t="s">
+      <c r="D49" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="51"/>
       <c r="F49" s="9">
         <v>29495</v>
       </c>
@@ -2823,7 +2837,7 @@
       </c>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2832,77 +2846,77 @@
       <c r="G50" s="32"/>
       <c r="H50" s="4"/>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
     </row>
-    <row r="81" spans="5:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E81" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="82" spans="5:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E82" s="30" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>372</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
     <mergeCell ref="D47:E47"/>
     <mergeCell ref="D48:E48"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
   </mergeCells>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="16" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E68">
-    <cfRule type="duplicateValues" dxfId="15" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E80 E82:E1048576">
-    <cfRule type="duplicateValues" dxfId="14" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="12" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E81">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E84">
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E79:E83">
-    <cfRule type="duplicateValues" dxfId="9" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E77:E89">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E99:E105">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2910,21 +2924,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.453125" customWidth="1"/>
-    <col min="3" max="3" width="36.81640625" customWidth="1"/>
-    <col min="4" max="4" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="36.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2941,190 +2955,193 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>347</v>
       </c>
-      <c r="B2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>354</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" t="s">
-        <v>427</v>
-      </c>
-      <c r="E6" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
-        <v>356</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>358</v>
-      </c>
-      <c r="E7" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>359</v>
-      </c>
-      <c r="E8" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E9" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>363</v>
-      </c>
-      <c r="E10" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>365</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>366</v>
-      </c>
-      <c r="E11" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" t="s">
-        <v>367</v>
-      </c>
-      <c r="E12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3134,24 +3151,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F182"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="F172" sqref="F172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="17.54296875" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" customWidth="1"/>
-    <col min="4" max="4" width="40.1796875" customWidth="1"/>
-    <col min="5" max="5" width="30.7265625" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="7" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3171,7 +3188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>61</v>
       </c>
@@ -3188,7 +3205,7 @@
         <v>1038012</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -3205,7 +3222,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -3219,7 +3236,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>139</v>
       </c>
@@ -3233,7 +3250,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>58</v>
       </c>
@@ -3241,7 +3258,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>58</v>
       </c>
@@ -3249,7 +3266,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>58</v>
       </c>
@@ -3257,7 +3274,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>75</v>
       </c>
@@ -3268,7 +3285,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>58</v>
       </c>
@@ -3276,7 +3293,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>58</v>
       </c>
@@ -3284,7 +3301,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>58</v>
       </c>
@@ -3292,7 +3309,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>58</v>
       </c>
@@ -3303,7 +3320,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>58</v>
       </c>
@@ -3314,7 +3331,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>58</v>
       </c>
@@ -3322,7 +3339,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>89</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>58</v>
       </c>
@@ -3344,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>90</v>
       </c>
@@ -3366,7 +3383,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>58</v>
       </c>
@@ -3374,7 +3391,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>58</v>
       </c>
@@ -3382,7 +3399,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3407,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>86</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>58</v>
       </c>
@@ -3409,7 +3426,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>58</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>58</v>
       </c>
@@ -3425,7 +3442,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>58</v>
       </c>
@@ -3433,7 +3450,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>58</v>
       </c>
@@ -3441,10 +3458,10 @@
         <v>96</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>58</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>58</v>
       </c>
@@ -3460,7 +3477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>58</v>
       </c>
@@ -3468,7 +3485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>58</v>
       </c>
@@ -3476,7 +3493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>58</v>
       </c>
@@ -3484,7 +3501,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>58</v>
       </c>
@@ -3492,7 +3509,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>58</v>
       </c>
@@ -3500,7 +3517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>58</v>
       </c>
@@ -3508,7 +3525,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -3522,31 +3539,31 @@
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>58</v>
       </c>
       <c r="D38" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>58</v>
       </c>
       <c r="D39" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>58</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>58</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>58</v>
       </c>
@@ -3562,7 +3579,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -3570,7 +3587,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -3578,7 +3595,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>58</v>
       </c>
@@ -3589,7 +3606,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>58</v>
       </c>
@@ -3597,7 +3614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>58</v>
       </c>
@@ -3605,84 +3622,84 @@
         <v>115</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>58</v>
       </c>
       <c r="D48" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="43" t="s">
+      <c r="E48" s="42" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>58</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="43" t="s">
+      <c r="E50" s="42" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="E51" s="43" t="s">
+      <c r="E51" s="42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>58</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="42" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="E53" s="43" t="s">
+      <c r="E53" s="42" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="43" t="s">
+      <c r="E54" s="42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
         <v>122</v>
       </c>
@@ -3695,9 +3712,12 @@
       <c r="E55" s="35">
         <v>851012126985</v>
       </c>
-      <c r="F55" s="45"/>
-    </row>
-    <row r="56" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F55" s="47">
+        <f ca="1">TODAY()</f>
+        <v>44908</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>58</v>
       </c>
@@ -3708,7 +3728,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="57" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>58</v>
       </c>
@@ -3716,10 +3736,10 @@
         <v>130</v>
       </c>
       <c r="E57" s="35" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>58</v>
       </c>
@@ -3730,7 +3750,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>58</v>
       </c>
@@ -3738,7 +3758,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>58</v>
       </c>
@@ -3747,7 +3767,7 @@
       </c>
       <c r="E60" s="37"/>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>58</v>
       </c>
@@ -3758,7 +3778,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>140</v>
       </c>
@@ -3769,13 +3789,13 @@
         <v>141</v>
       </c>
       <c r="E62" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="F62" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>58</v>
       </c>
@@ -3786,7 +3806,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>58</v>
       </c>
@@ -3794,7 +3814,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
         <v>112</v>
       </c>
@@ -3808,7 +3828,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>58</v>
       </c>
@@ -3819,7 +3839,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>58</v>
       </c>
@@ -3830,7 +3850,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>58</v>
       </c>
@@ -3841,7 +3861,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>58</v>
       </c>
@@ -3852,7 +3872,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>58</v>
       </c>
@@ -3863,7 +3883,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>58</v>
       </c>
@@ -3874,7 +3894,7 @@
         <v>142255683</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>58</v>
       </c>
@@ -3885,7 +3905,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>58</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>58</v>
       </c>
@@ -3907,7 +3927,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>206</v>
       </c>
@@ -3918,7 +3938,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>58</v>
       </c>
@@ -3929,7 +3949,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>58</v>
       </c>
@@ -3940,7 +3960,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>58</v>
       </c>
@@ -3951,7 +3971,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C79" t="s">
         <v>58</v>
       </c>
@@ -3962,7 +3982,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C80" t="s">
         <v>58</v>
       </c>
@@ -3973,7 +3993,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>58</v>
       </c>
@@ -3981,7 +4001,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>58</v>
       </c>
@@ -3989,7 +4009,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>112</v>
       </c>
@@ -4000,7 +4020,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
         <v>217</v>
       </c>
@@ -4011,7 +4031,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>58</v>
       </c>
@@ -4022,7 +4042,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>58</v>
       </c>
@@ -4033,7 +4053,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>58</v>
       </c>
@@ -4044,7 +4064,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>58</v>
       </c>
@@ -4055,7 +4075,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>58</v>
       </c>
@@ -4066,7 +4086,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C90" t="s">
         <v>58</v>
       </c>
@@ -4077,7 +4097,7 @@
         <v>144225681</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C91" t="s">
         <v>58</v>
       </c>
@@ -4088,7 +4108,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>58</v>
       </c>
@@ -4096,7 +4116,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>58</v>
       </c>
@@ -4104,7 +4124,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>58</v>
       </c>
@@ -4115,7 +4135,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>58</v>
       </c>
@@ -4126,7 +4146,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>58</v>
       </c>
@@ -4137,7 +4157,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
         <v>58</v>
       </c>
@@ -4148,7 +4168,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
         <v>58</v>
       </c>
@@ -4159,7 +4179,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>58</v>
       </c>
@@ -4170,7 +4190,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>58</v>
       </c>
@@ -4181,19 +4201,19 @@
         <v>228</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>58</v>
       </c>
       <c r="D101">
         <v>44836800</v>
       </c>
-      <c r="E101" s="44">
+      <c r="E101" s="43">
         <f>D101</f>
         <v>44836800</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>243</v>
       </c>
@@ -4204,7 +4224,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>58</v>
       </c>
@@ -4215,7 +4235,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
         <v>58</v>
       </c>
@@ -4226,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
         <v>58</v>
       </c>
@@ -4237,19 +4257,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>58</v>
       </c>
       <c r="D106" t="s">
         <v>248</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="44">
         <f>E103</f>
         <v>5000</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
         <v>249</v>
       </c>
@@ -4259,12 +4279,12 @@
       <c r="D107" t="s">
         <v>250</v>
       </c>
-      <c r="E107" s="52">
+      <c r="E107" s="44">
         <f>E105</f>
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>58</v>
       </c>
@@ -4272,10 +4292,10 @@
         <v>251</v>
       </c>
       <c r="E108" s="34" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>58</v>
       </c>
@@ -4283,18 +4303,18 @@
         <v>252</v>
       </c>
       <c r="E109" s="34" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>58</v>
       </c>
       <c r="D110" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C111" t="s">
         <v>58</v>
       </c>
@@ -4302,7 +4322,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C112" t="s">
         <v>58</v>
       </c>
@@ -4310,7 +4330,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>255</v>
       </c>
@@ -4325,13 +4345,13 @@
         <v>+60142255683</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E114" t="str">
         <f>TEXT(E113,"+# ## ### ####")</f>
         <v>+60 14 225 5683</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>256</v>
       </c>
@@ -4340,27 +4360,27 @@
         <v>23 Jalan Air Itam, Taman Harmony, Ampang, 46000 Selangor, Malaysia</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>259</v>
       </c>
@@ -4368,116 +4388,116 @@
         <v>58</v>
       </c>
       <c r="D120" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.35">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="E136" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="E137" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>272</v>
       </c>
@@ -4485,351 +4505,379 @@
         <v>272</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>274</v>
       </c>
       <c r="D143" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>426</v>
+      </c>
+      <c r="E144" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D145" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D146" t="s">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D147" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D148" t="s">
+      <c r="E149" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>279</v>
+      </c>
+      <c r="E150" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D149" t="s">
-        <v>279</v>
-      </c>
-      <c r="E149" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D150" t="s">
-        <v>286</v>
-      </c>
-      <c r="E150" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
       <c r="E151" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D152" s="39"/>
       <c r="E152" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+      <c r="D157" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E153" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E154" t="s">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>421</v>
+      </c>
+      <c r="E159" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D155" t="s">
+      <c r="E161" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>286</v>
+      </c>
+      <c r="E162" s="29" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
         <v>287</v>
       </c>
-      <c r="E155" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="E156" t="s">
+      <c r="E163">
+        <v>9</v>
+      </c>
+      <c r="F163" s="46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>427</v>
+      </c>
+      <c r="E164">
+        <v>9900001</v>
+      </c>
+      <c r="F164" s="46">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D165">
+        <v>450000</v>
+      </c>
+      <c r="E165" s="40">
+        <f>E163</f>
+        <v>9</v>
+      </c>
+      <c r="F165" s="44">
+        <f>D165</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B157" t="s">
-        <v>294</v>
-      </c>
-      <c r="D157" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D158" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D159" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D160" t="s">
-        <v>295</v>
-      </c>
-      <c r="E160" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D161" t="s">
-        <v>296</v>
-      </c>
-      <c r="E161" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D162" t="s">
-        <v>297</v>
-      </c>
-      <c r="E162" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D163" t="s">
-        <v>298</v>
-      </c>
-      <c r="E163">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E164">
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="E165" s="40">
+      <c r="E166" s="40">
         <f>E164</f>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D166" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.35">
+        <v>9900001</v>
+      </c>
+      <c r="F166" s="46">
+        <f>D165</f>
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="E167" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="E168">
         <v>40</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="E169">
         <v>400000</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D170" t="s">
-        <v>306</v>
-      </c>
-      <c r="E170" s="42">
+    <row r="170" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E170" s="44">
         <f>E169</f>
         <v>400000</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="E171">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.35">
+        <f>D165+1</f>
+        <v>450001</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E172">
-        <f>0.49*E164</f>
-        <v>245000</v>
-      </c>
-    </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.35">
+        <f>0.49*D165</f>
+        <v>220500</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D173" t="s">
-        <v>308</v>
+        <v>428</v>
       </c>
       <c r="E173">
         <v>9999</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E174">
         <f>(E164-E169)/E164</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.35">
+        <v>0.95959596367717537</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.35">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.35">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D177" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E177" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.35">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E178" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.35">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E179" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.35">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
       <c r="E180" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.35">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D181" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.35">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D182" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D131:D133 D135:D139">
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D134:E134">
     <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D134:E134">
+  <conditionalFormatting sqref="D132:D138">
     <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D132:D138">
+  <conditionalFormatting sqref="D108:D115">
     <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D108:D115">
+  <conditionalFormatting sqref="D57:D59">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D59">
+  <conditionalFormatting sqref="D135:D138">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D135:D138">
+  <conditionalFormatting sqref="D173:D174">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 B5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"1 Applicant,2 Applicants"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"Female,Male"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D83" xr:uid="{00000000-0002-0000-0200-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E152" r:id="rId1"/>
+    <hyperlink ref="E152" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000004000000}">
           <x14:formula1>
             <xm:f>Dropdown!$A$2:$A$7</xm:f>
           </x14:formula1>
           <xm:sqref>E65</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000005000000}">
           <x14:formula1>
             <xm:f>Dropdown!$B$2:$B$30</xm:f>
           </x14:formula1>
           <xm:sqref>E66</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000006000000}">
           <x14:formula1>
             <xm:f>Dropdown!$D$2:$D$9</xm:f>
           </x14:formula1>
           <xm:sqref>E68</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000007000000}">
           <x14:formula1>
             <xm:f>Dropdown!$E$2:$E$7</xm:f>
           </x14:formula1>
           <xm:sqref>E69</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000008000000}">
           <x14:formula1>
             <xm:f>Dropdown!$G:$G</xm:f>
           </x14:formula1>
           <xm:sqref>E72</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000009000000}">
           <x14:formula1>
             <xm:f>Dropdown!$H$2:$H$9</xm:f>
           </x14:formula1>
           <xm:sqref>E73</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-00000A000000}">
           <x14:formula1>
             <xm:f>Dropdown!$I$2:$I$7</xm:f>
           </x14:formula1>
@@ -4842,22 +4890,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="D31" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="25.1796875" customWidth="1"/>
-    <col min="8" max="8" width="20.26953125" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -4886,16 +4934,16 @@
         <v>191</v>
       </c>
       <c r="J1" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="K1" t="s">
         <v>251</v>
       </c>
       <c r="L1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -4909,13 +4957,13 @@
         <v>177</v>
       </c>
       <c r="E2" t="s">
-        <v>383</v>
+        <v>361</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>389</v>
+        <v>367</v>
       </c>
       <c r="G2" t="s">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="H2" t="s">
         <v>193</v>
@@ -4927,13 +4975,13 @@
         <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="L2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -4950,10 +4998,10 @@
         <v>185</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>390</v>
+        <v>368</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="H3" t="s">
         <v>194</v>
@@ -4965,13 +5013,13 @@
         <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -4982,13 +5030,13 @@
         <v>179</v>
       </c>
       <c r="E4" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>391</v>
+        <v>369</v>
       </c>
       <c r="G4" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="H4" t="s">
         <v>195</v>
@@ -4997,16 +5045,16 @@
         <v>149</v>
       </c>
       <c r="J4" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="K4" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="L4" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>148</v>
       </c>
@@ -5014,16 +5062,16 @@
         <v>155</v>
       </c>
       <c r="D5" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="E5" t="s">
         <v>186</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>392</v>
+        <v>370</v>
       </c>
       <c r="G5" t="s">
-        <v>396</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
         <v>196</v>
@@ -5035,13 +5083,13 @@
         <v>144</v>
       </c>
       <c r="K5" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="L5" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -5049,13 +5097,13 @@
         <v>156</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="E6" t="s">
         <v>187</v>
       </c>
       <c r="G6" t="s">
-        <v>395</v>
+        <v>373</v>
       </c>
       <c r="H6" t="s">
         <v>197</v>
@@ -5067,13 +5115,13 @@
         <v>151</v>
       </c>
       <c r="K6" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="L6" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -5084,10 +5132,10 @@
         <v>180</v>
       </c>
       <c r="E7" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="H7" t="s">
         <v>198</v>
@@ -5099,13 +5147,13 @@
         <v>174</v>
       </c>
       <c r="K7" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="L7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>158</v>
       </c>
@@ -5113,7 +5161,7 @@
         <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="H8" t="s">
         <v>199</v>
@@ -5122,13 +5170,13 @@
         <v>183</v>
       </c>
       <c r="K8" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="L8" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>159</v>
       </c>
@@ -5136,7 +5184,7 @@
         <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="H9" t="s">
         <v>200</v>
@@ -5145,13 +5193,13 @@
         <v>184</v>
       </c>
       <c r="K9" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="L9" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>160</v>
       </c>
@@ -5159,7 +5207,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>161</v>
       </c>
@@ -5167,7 +5215,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>162</v>
       </c>
@@ -5175,7 +5223,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>163</v>
       </c>
@@ -5183,7 +5231,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>164</v>
       </c>
@@ -5191,7 +5239,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>165</v>
       </c>
@@ -5199,31 +5247,31 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="J16" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>387</v>
+        <v>365</v>
       </c>
       <c r="J17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>388</v>
+        <v>366</v>
       </c>
       <c r="J18" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>167</v>
       </c>
@@ -5231,7 +5279,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -5239,7 +5287,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>169</v>
       </c>
@@ -5247,7 +5295,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>170</v>
       </c>
@@ -5255,7 +5303,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>171</v>
       </c>
@@ -5263,15 +5311,15 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>382</v>
+        <v>360</v>
       </c>
       <c r="J24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>172</v>
       </c>
@@ -5279,43 +5327,43 @@
         <v>244</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J26" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J27" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J28" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J29" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J30" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J31" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="J32" t="s">
         <v>254</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="L2:L9">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:L9">
     <sortCondition ref="L2"/>
   </sortState>
   <conditionalFormatting sqref="J28:J32">
@@ -5327,286 +5375,292 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" t="s">
         <v>320</v>
       </c>
-      <c r="C1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="42"/>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="53" t="s">
-        <v>418</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>396</v>
       </c>
       <c r="B6" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C6" s="29" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D6"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="53" t="s">
-        <v>421</v>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>398</v>
       </c>
       <c r="B7" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="C7" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="C9" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C10" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>308</v>
+      </c>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>308</v>
+      </c>
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D46"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D50"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D51"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D52"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D53"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D54"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D55"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D56"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D57"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D58"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D59"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D60"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D61"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D62"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D63"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D64"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D65"/>
     </row>
   </sheetData>
